--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\PROJETOS\APP\Códigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3995FD49-A717-4AFD-A02E-AC89F6F50AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7090CC77-7DB5-44ED-8EF2-9069CA0A56A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="214">
   <si>
     <t>Complemento</t>
   </si>
@@ -518,18 +518,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>FITA CETIM - AMARELO</t>
-  </si>
-  <si>
-    <t>S150203</t>
-  </si>
-  <si>
-    <t>FITA CETIM - AZUL</t>
-  </si>
-  <si>
-    <t>FITA CETIM - ROSA</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -638,9 +626,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>VASSOURA DE PELO SINTETICO</t>
-  </si>
-  <si>
     <t>S110036</t>
   </si>
   <si>
@@ -648,6 +633,54 @@
   </si>
   <si>
     <t>S010040</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
+  </si>
+  <si>
+    <t>S050008</t>
+  </si>
+  <si>
+    <t>UM.</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>PC C/10</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC C/8</t>
+  </si>
+  <si>
+    <t>PC C/100</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PELO SINTETICO - PLASTICO</t>
+  </si>
+  <si>
+    <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - UNICA</t>
+  </si>
+  <si>
+    <t>S020048</t>
+  </si>
+  <si>
+    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S020008</t>
   </si>
 </sst>
 </file>
@@ -730,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -744,12 +777,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -775,15 +829,6 @@
         <top/>
         <bottom style="thin">
           <color rgb="FF00B0F0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1099,1225 +1144,1566 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C107"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D103" sqref="D1:D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>809</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>1046</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>1045</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D24" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D25" s="4">
         <v>904</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D27" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D28" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D29" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D30" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D31" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D33" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D34" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D37" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D38" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D39" s="4">
         <v>899</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D40" s="4">
         <v>896</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D41" s="4">
         <v>900</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D42" s="4">
         <v>898</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D44" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B45" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D45" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B46" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="4">
+      <c r="D52" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="4">
+      <c r="D53" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="4">
+      <c r="D54" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="4">
+      <c r="D55" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="4">
+      <c r="D56" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="4">
+      <c r="D57" s="4">
         <v>910</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="4">
+      <c r="D58" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="4">
+      <c r="D59" s="4">
         <v>745</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="4">
+      <c r="D60" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="4">
+      <c r="D61" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="4">
+      <c r="D62" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="4">
+      <c r="D64" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="4">
+      <c r="D65" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="4">
+      <c r="D68" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="4">
+      <c r="D69" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="4">
+      <c r="D71" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="4">
+      <c r="D73" s="4">
         <v>820</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="4">
+      <c r="D74" s="4">
         <v>819</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="4">
+      <c r="D76" s="4">
         <v>553</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C77" s="4">
+        <v>204</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="4">
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="4">
+      <c r="D78" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="4">
+      <c r="D79" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="4">
+      <c r="D80" s="4">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="4">
+      <c r="D82" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="4">
+      <c r="D83" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="4">
+      <c r="D84" s="4">
         <v>994</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="4">
+      <c r="D85" s="4">
         <v>695</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C87" s="4">
+      <c r="D87" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C89" s="4">
+      <c r="D89" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="4">
+      <c r="D90" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C91" s="4">
+      <c r="D91" s="4">
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C92" s="4">
+      <c r="D92" s="4">
         <v>918</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" s="4">
+        <v>204</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D93" s="4">
         <v>747</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="4">
+        <v>204</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D94" s="4">
         <v>449</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="4">
+      <c r="D95" s="4">
         <v>170</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C96" s="4">
+      <c r="D96" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="4">
+      <c r="D97" s="4">
         <v>799</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C98" s="4">
+      <c r="D98" s="4">
         <v>1127</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C99" s="4">
+      <c r="D99" s="4">
         <v>569</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="4">
+      <c r="D100" s="4">
         <v>762</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C101" s="4">
+      <c r="D101" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B106" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="D106" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B103" s="4" t="s">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C104" s="4">
+      <c r="D107" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C106" s="4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C107" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C83" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C83">
+  <autoFilter ref="A1:D108" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D83">
       <sortCondition ref="A1:A83"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A107">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
-      <formula>LEN(TRIM(A107))&gt;0</formula>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C76 A78:C107">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D20 A22:D42 A44:D102 A104:D108">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:C77">
+  <conditionalFormatting sqref="A21:D21">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A21))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:D43">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A43))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103:D103">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A77))&gt;0</formula>
+      <formula>LEN(TRIM(A103))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="C6:C107" numberStoredAsText="1"/>
+    <ignoredError sqref="D104:D108 D48:D102 D22:D42 D6:D20 D44:D46 D1:D5 D47 D21 D43 D103" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7090CC77-7DB5-44ED-8EF2-9069CA0A56A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD0C47A-2FE0-46F7-A609-E5E2A02A6C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="219">
   <si>
     <t>Complemento</t>
   </si>
@@ -464,15 +464,6 @@
     <t>122</t>
   </si>
   <si>
-    <t>BAND-AID - 500 UND</t>
-  </si>
-  <si>
-    <t>S150156</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
     <t>BOBINA P/ PONTO ELETRONICO - 57X300 (GRANDE)</t>
   </si>
   <si>
@@ -681,6 +672,30 @@
   </si>
   <si>
     <t>S020008</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
+  </si>
+  <si>
+    <t>S150189</t>
+  </si>
+  <si>
+    <t>MOP PO REFIL - UNICA</t>
+  </si>
+  <si>
+    <t>S010076</t>
+  </si>
+  <si>
+    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S010034</t>
+  </si>
+  <si>
+    <t>KIT MOP UMIDO - UNICA</t>
+  </si>
+  <si>
+    <t>S010086</t>
   </si>
 </sst>
 </file>
@@ -763,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -780,30 +795,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -848,9 +848,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -888,7 +888,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -994,7 +994,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1136,7 +1136,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1144,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D103" sqref="D1:D103"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>118</v>
@@ -1191,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1219,7 +1219,7 @@
         <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>116</v>
@@ -1233,7 +1233,7 @@
         <v>132</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>133</v>
@@ -1247,7 +1247,7 @@
         <v>135</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>136</v>
@@ -1261,7 +1261,7 @@
         <v>138</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>139</v>
@@ -1272,195 +1272,195 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>143</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4">
-        <v>809</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="4">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
-        <v>1045</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>137</v>
+        <v>20</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D21" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1468,80 +1468,80 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="D24" s="4">
-        <v>52</v>
+        <v>904</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="4">
-        <v>904</v>
+      <c r="D25" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>149</v>
+        <v>28</v>
+      </c>
+      <c r="D26" s="4">
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="4">
-        <v>109</v>
+        <v>212</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>29</v>
@@ -1555,7 +1555,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>31</v>
@@ -1566,13 +1566,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1594,13 +1594,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>137</v>
@@ -1611,7 +1611,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>35</v>
@@ -1625,7 +1625,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -1636,16 +1636,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>39</v>
@@ -1667,7 +1667,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>41</v>
@@ -1681,7 +1681,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1695,7 +1695,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1709,7 +1709,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>45</v>
@@ -1723,7 +1723,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>45</v>
@@ -1737,7 +1737,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>45</v>
@@ -1748,13 +1748,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>137</v>
@@ -1765,7 +1765,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>50</v>
@@ -1779,7 +1779,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>50</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>137</v>
@@ -1804,13 +1804,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>53</v>
@@ -1835,7 +1835,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>55</v>
@@ -1849,7 +1849,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>57</v>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1874,13 +1874,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1888,13 +1888,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1902,41 +1902,41 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="D54" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D55" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56" s="4">
         <v>103</v>
@@ -1944,209 +1944,209 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D57" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D59" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D60" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D62" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>162</v>
+      <c r="D63" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="4">
-        <v>31</v>
+      <c r="D64" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="D65" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>164</v>
+      <c r="D66" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D69" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>169</v>
+        <v>214</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2154,556 +2154,588 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>137</v>
+        <v>79</v>
+      </c>
+      <c r="D72" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" s="4">
-        <v>820</v>
+        <v>165</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D74" s="4">
-        <v>819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D76" s="4">
-        <v>553</v>
+        <v>820</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="D77" s="4">
-        <v>433</v>
+        <v>819</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D78" s="4">
-        <v>72</v>
+        <v>85</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D79" s="4">
-        <v>86</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="D80" s="4">
-        <v>87</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>176</v>
+        <v>88</v>
+      </c>
+      <c r="D81" s="4">
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D82" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D83" s="4">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D84" s="4">
-        <v>994</v>
+        <v>90</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D85" s="4">
-        <v>695</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>137</v>
+        <v>92</v>
+      </c>
+      <c r="D86" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D87" s="4">
-        <v>1</v>
+        <v>994</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>137</v>
+        <v>94</v>
+      </c>
+      <c r="D88" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D89" s="4">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D90" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D91" s="4">
-        <v>107</v>
+        <v>179</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D92" s="4">
-        <v>918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="D93" s="4">
-        <v>747</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="D94" s="4">
-        <v>449</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D95" s="4">
-        <v>170</v>
+        <v>918</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="D96" s="4">
-        <v>163</v>
+        <v>747</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="D97" s="4">
-        <v>799</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D98" s="4">
-        <v>1127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D99" s="4">
-        <v>569</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D100" s="4">
-        <v>762</v>
+        <v>799</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D101" s="4">
-        <v>211</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
+      </c>
+      <c r="D102" s="4">
+        <v>569</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
+      </c>
+      <c r="D103" s="4">
+        <v>762</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>134</v>
+        <v>112</v>
+      </c>
+      <c r="D104" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D105" s="4">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D108" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D83">
-      <sortCondition ref="A1:A83"/>
+  <autoFilter ref="A1:D111" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
+      <sortCondition ref="A1:A86"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D20 A22:D42 A44:D102 A104:D108">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A2:D50 A52:D111">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:D21">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A21))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:D43">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A43))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103:D103">
+  <conditionalFormatting sqref="A51:D51">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A103))&gt;0</formula>
+      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D104:D108 D48:D102 D22:D42 D6:D20 D44:D46 D1:D5 D47 D21 D43 D103" numberStoredAsText="1"/>
+    <ignoredError sqref="D72:D111 D1:D26 D52:D69 D28:D50" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD0C47A-2FE0-46F7-A609-E5E2A02A6C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDABC61-6490-4AAF-AF63-B1FAA6912390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -446,12 +446,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>AVENTAL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010007</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -696,6 +690,12 @@
   </si>
   <si>
     <t>S010086</t>
+  </si>
+  <si>
+    <t>AVENTAL C/ MANGA - UNICA</t>
+  </si>
+  <si>
+    <t>S150204</t>
   </si>
 </sst>
 </file>
@@ -1146,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>118</v>
@@ -1191,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1219,7 +1219,7 @@
         <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>116</v>
@@ -1233,7 +1233,7 @@
         <v>132</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>133</v>
@@ -1244,30 +1244,30 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1317,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1331,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
@@ -1345,7 +1345,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1359,7 +1359,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>16</v>
@@ -1373,7 +1373,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1384,16 +1384,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1401,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1415,7 +1415,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1443,7 +1443,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>23</v>
@@ -1457,7 +1457,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>25</v>
@@ -1471,7 +1471,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>27</v>
@@ -1485,7 +1485,7 @@
         <v>119</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>120</v>
@@ -1496,24 +1496,24 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>28</v>
@@ -1524,13 +1524,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -1538,10 +1538,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>29</v>
@@ -1555,7 +1555,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>31</v>
@@ -1566,13 +1566,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1594,16 +1594,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>35</v>
@@ -1625,7 +1625,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -1636,16 +1636,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1653,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>41</v>
@@ -1681,7 +1681,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1695,7 +1695,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1709,7 +1709,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>45</v>
@@ -1723,7 +1723,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>45</v>
@@ -1737,7 +1737,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>45</v>
@@ -1748,16 +1748,16 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>50</v>
@@ -1779,7 +1779,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>50</v>
@@ -1790,27 +1790,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>53</v>
@@ -1835,7 +1835,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>55</v>
@@ -1849,7 +1849,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>57</v>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
@@ -1891,7 +1891,7 @@
         <v>121</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>122</v>
@@ -1905,7 +1905,7 @@
         <v>126</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>127</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>61</v>
@@ -1933,7 +1933,7 @@
         <v>62</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>63</v>
@@ -1947,7 +1947,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>65</v>
@@ -1961,7 +1961,7 @@
         <v>66</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>65</v>
@@ -1975,7 +1975,7 @@
         <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>68</v>
@@ -1989,7 +1989,7 @@
         <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>70</v>
@@ -2003,7 +2003,7 @@
         <v>71</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>72</v>
@@ -2017,7 +2017,7 @@
         <v>73</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>72</v>
@@ -2031,7 +2031,7 @@
         <v>123</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>124</v>
@@ -2042,16 +2042,16 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2059,7 +2059,7 @@
         <v>125</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>124</v>
@@ -2073,7 +2073,7 @@
         <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>75</v>
@@ -2084,30 +2084,30 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>76</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>77</v>
@@ -2126,13 +2126,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -2140,13 +2140,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2157,7 +2157,7 @@
         <v>78</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>79</v>
@@ -2168,16 +2168,16 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2185,7 +2185,7 @@
         <v>80</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>81</v>
@@ -2196,16 +2196,16 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2213,7 +2213,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>83</v>
@@ -2227,7 +2227,7 @@
         <v>84</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>83</v>
@@ -2238,16 +2238,16 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,7 @@
         <v>86</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>87</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D80" s="4">
         <v>433</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>88</v>
@@ -2297,7 +2297,7 @@
         <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>90</v>
@@ -2311,7 +2311,7 @@
         <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>90</v>
@@ -2322,24 +2322,24 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>92</v>
@@ -2350,10 +2350,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>92</v>
@@ -2367,7 +2367,7 @@
         <v>95</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>94</v>
@@ -2381,7 +2381,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>94</v>
@@ -2392,16 +2392,16 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2409,7 +2409,7 @@
         <v>96</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>97</v>
@@ -2420,16 +2420,16 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2437,7 +2437,7 @@
         <v>98</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>99</v>
@@ -2451,7 +2451,7 @@
         <v>100</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>101</v>
@@ -2465,7 +2465,7 @@
         <v>102</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>103</v>
@@ -2479,7 +2479,7 @@
         <v>128</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>129</v>
@@ -2490,13 +2490,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D96" s="4">
         <v>747</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D97" s="4">
         <v>449</v>
@@ -2521,7 +2521,7 @@
         <v>104</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>105</v>
@@ -2535,7 +2535,7 @@
         <v>106</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>105</v>
@@ -2549,7 +2549,7 @@
         <v>107</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>105</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>108</v>
@@ -2577,7 +2577,7 @@
         <v>109</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>108</v>
@@ -2591,7 +2591,7 @@
         <v>110</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>108</v>
@@ -2605,7 +2605,7 @@
         <v>111</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>112</v>
@@ -2616,41 +2616,41 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>134</v>
@@ -2661,7 +2661,7 @@
         <v>130</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>131</v>
@@ -2672,27 +2672,27 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2703,7 +2703,7 @@
         <v>113</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>114</v>
@@ -2719,23 +2719,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D50 A52:D111">
+  <conditionalFormatting sqref="A2:D6 A8:D111">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:D51">
+  <conditionalFormatting sqref="A7:D7">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A51))&gt;0</formula>
+      <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D72:D111 D1:D26 D52:D69 D28:D50" numberStoredAsText="1"/>
+    <ignoredError sqref="D72:D111 D1:D6 D52:D69 D28:D50 D8:D26" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDABC61-6490-4AAF-AF63-B1FAA6912390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4EA83D-899C-4BB2-88F8-DB7A095D08AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="221">
   <si>
     <t>Complemento</t>
   </si>
@@ -696,6 +696,12 @@
   </si>
   <si>
     <t>S150204</t>
+  </si>
+  <si>
+    <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>S010002</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,13 +1194,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="D3" s="4">
         <v>105</v>
@@ -1202,105 +1208,105 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>134</v>
+        <v>116</v>
+      </c>
+      <c r="D6" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4">
-        <v>809</v>
+        <v>137</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4">
-        <v>1046</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>197</v>
@@ -1309,40 +1315,40 @@
         <v>9</v>
       </c>
       <c r="D11" s="4">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4">
-        <v>103</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>197</v>
@@ -1351,68 +1357,68 @@
         <v>13</v>
       </c>
       <c r="D14" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>135</v>
+        <v>18</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2</v>
+        <v>142</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>197</v>
@@ -1421,12 +1427,12 @@
         <v>20</v>
       </c>
       <c r="D19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>197</v>
@@ -1435,32 +1441,32 @@
         <v>20</v>
       </c>
       <c r="D20" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1468,35 +1474,35 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4">
-        <v>904</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>197</v>
@@ -1504,89 +1510,89 @@
       <c r="C25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>144</v>
+      <c r="D25" s="4">
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="4">
-        <v>109</v>
+        <v>120</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="D27" s="4">
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="4">
-        <v>105</v>
+        <v>210</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1594,41 +1600,41 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>135</v>
+        <v>33</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1636,55 +1642,55 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>153</v>
+        <v>37</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1692,21 +1698,21 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39" s="4">
-        <v>899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>197</v>
@@ -1715,12 +1721,12 @@
         <v>45</v>
       </c>
       <c r="D40" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>197</v>
@@ -1729,12 +1735,12 @@
         <v>45</v>
       </c>
       <c r="D41" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>197</v>
@@ -1743,40 +1749,40 @@
         <v>45</v>
       </c>
       <c r="D42" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>135</v>
+        <v>45</v>
+      </c>
+      <c r="D43" s="4">
+        <v>898</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="4">
-        <v>166</v>
+        <v>206</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>197</v>
@@ -1785,46 +1791,46 @@
         <v>50</v>
       </c>
       <c r="D45" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>135</v>
+        <v>50</v>
+      </c>
+      <c r="D46" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1832,27 +1838,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D50" s="4">
         <v>80</v>
@@ -1860,27 +1866,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1888,13 +1894,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1902,13 +1908,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1916,41 +1922,41 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="D55" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D56" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1958,7 +1964,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>197</v>
@@ -1967,54 +1973,54 @@
         <v>65</v>
       </c>
       <c r="D58" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D60" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D61" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>197</v>
@@ -2023,26 +2029,26 @@
         <v>72</v>
       </c>
       <c r="D62" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D63" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>196</v>
@@ -2050,13 +2056,13 @@
       <c r="C64" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>157</v>
+      <c r="D64" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>196</v>
@@ -2064,27 +2070,27 @@
       <c r="C65" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D65" s="4">
-        <v>31</v>
+      <c r="D65" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="D66" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>197</v>
@@ -2092,13 +2098,13 @@
       <c r="C67" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>159</v>
+      <c r="D67" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>197</v>
@@ -2107,32 +2113,32 @@
         <v>75</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -2140,13 +2146,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2154,77 +2160,77 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="D72" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>164</v>
+        <v>79</v>
+      </c>
+      <c r="D73" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D74" s="4">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>135</v>
+        <v>81</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" s="4">
-        <v>820</v>
+        <v>166</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>199</v>
@@ -2233,82 +2239,82 @@
         <v>83</v>
       </c>
       <c r="D77" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>168</v>
+        <v>83</v>
+      </c>
+      <c r="D78" s="4">
+        <v>819</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" s="4">
-        <v>553</v>
+        <v>85</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="D80" s="4">
-        <v>433</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="D81" s="4">
-        <v>72</v>
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D82" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>197</v>
@@ -2317,12 +2323,12 @@
         <v>90</v>
       </c>
       <c r="D83" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>197</v>
@@ -2330,27 +2336,27 @@
       <c r="C84" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>171</v>
+      <c r="D84" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D85" s="4">
-        <v>55</v>
+        <v>90</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>197</v>
@@ -2359,26 +2365,26 @@
         <v>92</v>
       </c>
       <c r="D86" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D87" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>197</v>
@@ -2387,166 +2393,166 @@
         <v>94</v>
       </c>
       <c r="D88" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>135</v>
+        <v>94</v>
+      </c>
+      <c r="D89" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" s="4">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>135</v>
+        <v>97</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D92" s="4">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D93" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D94" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D95" s="4">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="D96" s="4">
-        <v>747</v>
+        <v>918</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D97" s="4">
-        <v>449</v>
+        <v>747</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="D98" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D99" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>197</v>
@@ -2555,26 +2561,26 @@
         <v>105</v>
       </c>
       <c r="D100" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D101" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>202</v>
@@ -2583,12 +2589,12 @@
         <v>108</v>
       </c>
       <c r="D102" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>202</v>
@@ -2597,46 +2603,46 @@
         <v>108</v>
       </c>
       <c r="D103" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D104" s="4">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>135</v>
+        <v>112</v>
+      </c>
+      <c r="D105" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>135</v>
@@ -2644,98 +2650,112 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D108" s="4">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>189</v>
+        <v>131</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D110" s="4">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D111" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
-      <sortCondition ref="A1:A86"/>
+  <autoFilter ref="A1:D112" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D87">
+      <sortCondition ref="A1:A87"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D6 A8:D111">
+  <conditionalFormatting sqref="A2:D2 A4:D112">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:D7">
+  <conditionalFormatting sqref="A3:D3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A7))&gt;0</formula>
+      <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D72:D111 D1:D6 D52:D69 D28:D50 D8:D26" numberStoredAsText="1"/>
+    <ignoredError sqref="D73:D112 D4:D7 D53:D70 D29:D51 D9:D27 D1:D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4EA83D-899C-4BB2-88F8-DB7A095D08AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BAA8AE-CFAA-4415-8983-7326BBB89972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="223">
   <si>
     <t>Complemento</t>
   </si>
@@ -702,6 +702,12 @@
   </si>
   <si>
     <t>S010002</t>
+  </si>
+  <si>
+    <t>TAPETE - UNICA</t>
+  </si>
+  <si>
+    <t>S110059</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:XFD105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,41 +2628,41 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="D105" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>135</v>
+        <v>112</v>
+      </c>
+      <c r="D106" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>135</v>
@@ -2664,98 +2670,112 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>189</v>
+        <v>131</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D111" s="4">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C112" s="4" t="s">
+      <c r="B113" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D113" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D112" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+  <autoFilter ref="A1:D113" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D87">
       <sortCondition ref="A1:A87"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2 A4:D112">
+  <conditionalFormatting sqref="A2:D104 A106:D113">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D3">
+  <conditionalFormatting sqref="A105:D105">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
+      <formula>LEN(TRIM(A105))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D73:D112 D4:D7 D53:D70 D29:D51 D9:D27 D1:D2" numberStoredAsText="1"/>
+    <ignoredError sqref="D106:D113 D4:D7 D53:D70 D29:D51 D9:D27 D1:D2 D73:D104" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BAA8AE-CFAA-4415-8983-7326BBB89972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBAA1A8-35DB-4308-9686-A10EA73751E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="222">
   <si>
     <t>Complemento</t>
   </si>
@@ -296,9 +296,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -542,12 +539,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
     <t>PAPEL TOALHA INTERFOLHADO - 1000 FLS</t>
   </si>
   <si>
@@ -708,6 +699,12 @@
   </si>
   <si>
     <t>S110059</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -1158,9 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:XFD105"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1175,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1186,30 +1181,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="D3" s="4">
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1217,7 +1212,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1231,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1242,13 +1237,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1256,44 +1251,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,7 +1296,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1312,10 +1307,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1326,10 +1321,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1343,7 +1338,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1357,7 +1352,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1371,7 +1366,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1385,7 +1380,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1399,7 +1394,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1410,16 +1405,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,7 +1422,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1441,7 +1436,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1452,10 +1447,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1469,7 +1464,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -1483,7 +1478,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -1497,7 +1492,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1508,13 +1503,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D25" s="4">
         <v>904</v>
@@ -1522,24 +1517,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -1550,13 +1545,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1564,10 +1559,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1581,7 +1576,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>31</v>
@@ -1592,13 +1587,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1609,7 +1604,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>33</v>
@@ -1620,16 +1615,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1637,7 +1632,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
@@ -1651,7 +1646,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>37</v>
@@ -1662,16 +1657,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1679,13 +1674,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1693,7 +1688,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>41</v>
@@ -1707,7 +1702,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>43</v>
@@ -1721,7 +1716,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>45</v>
@@ -1735,7 +1730,7 @@
         <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>45</v>
@@ -1749,7 +1744,7 @@
         <v>47</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>45</v>
@@ -1763,7 +1758,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>45</v>
@@ -1774,83 +1769,83 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="D45" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D46" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>135</v>
+        <v>50</v>
+      </c>
+      <c r="D47" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1858,27 +1853,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D51" s="4">
         <v>80</v>
@@ -1886,27 +1881,27 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1914,13 +1909,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1928,13 +1923,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1942,41 +1937,41 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="D56" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D57" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D58" s="4">
         <v>103</v>
@@ -1984,181 +1979,181 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D59" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D61" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D62" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D63" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D64" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>157</v>
+        <v>123</v>
+      </c>
+      <c r="D65" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D66" s="4">
-        <v>31</v>
+        <v>123</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="D67" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>159</v>
+      <c r="D68" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2166,13 +2161,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2180,111 +2175,111 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="D73" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>164</v>
+        <v>79</v>
+      </c>
+      <c r="D74" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1</v>
+        <v>162</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>135</v>
+        <v>81</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D77" s="4">
-        <v>820</v>
+        <v>165</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D78" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>168</v>
+        <v>83</v>
+      </c>
+      <c r="D79" s="4">
+        <v>819</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D80" s="4">
         <v>553</v>
@@ -2292,13 +2287,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D81" s="4">
         <v>433</v>
@@ -2306,13 +2301,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D82" s="4">
         <v>72</v>
@@ -2320,13 +2315,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D83" s="4">
         <v>86</v>
@@ -2334,13 +2329,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D84" s="4">
         <v>87</v>
@@ -2348,27 +2343,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="4">
         <v>55</v>
@@ -2376,13 +2371,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="4">
         <v>54</v>
@@ -2390,13 +2385,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D88" s="4">
         <v>994</v>
@@ -2404,13 +2399,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D89" s="4">
         <v>695</v>
@@ -2418,27 +2413,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2446,27 +2441,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2474,13 +2469,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D94" s="4">
         <v>53</v>
@@ -2488,13 +2483,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D95" s="4">
         <v>107</v>
@@ -2502,13 +2497,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D96" s="4">
         <v>918</v>
@@ -2516,13 +2511,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D97" s="4">
         <v>747</v>
@@ -2530,13 +2525,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D98" s="4">
         <v>449</v>
@@ -2544,13 +2539,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D99" s="4">
         <v>170</v>
@@ -2558,13 +2553,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D100" s="4">
         <v>163</v>
@@ -2572,13 +2567,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D101" s="4">
         <v>799</v>
@@ -2586,13 +2581,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D102" s="4">
         <v>1127</v>
@@ -2600,13 +2595,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D103" s="4">
         <v>569</v>
@@ -2614,13 +2609,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D104" s="4">
         <v>762</v>
@@ -2628,13 +2623,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2642,13 +2637,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D106" s="4">
         <v>211</v>
@@ -2656,55 +2651,55 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2712,27 +2707,27 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2740,13 +2735,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2754,28 +2749,28 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D113" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D87">
-      <sortCondition ref="A1:A87"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D113">
+      <sortCondition ref="A1:A113"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D104 A106:D113">
+  <conditionalFormatting sqref="A2:D78 A80:D113">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105:D105">
+  <conditionalFormatting sqref="A79:D79">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A105))&gt;0</formula>
+      <formula>LEN(TRIM(A79))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D106:D113 D4:D7 D53:D70 D29:D51 D9:D27 D1:D2 D73:D104" numberStoredAsText="1"/>
+    <ignoredError sqref="D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBAA1A8-35DB-4308-9686-A10EA73751E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55B99DF-977D-4AD1-A376-0F025B876C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>S110018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -705,6 +702,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1155,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:D38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1170,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1181,13 +1183,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1195,13 +1197,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1212,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1226,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1237,13 +1239,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1251,44 +1253,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1296,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1307,10 +1309,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1321,10 +1323,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1338,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1352,7 +1354,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1366,7 +1368,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1380,7 +1382,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1394,7 +1396,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1405,16 +1407,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1422,7 +1424,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1436,7 +1438,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1447,10 +1449,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1464,7 +1466,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -1478,7 +1480,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -1492,7 +1494,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1503,13 +1505,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D25" s="4">
         <v>904</v>
@@ -1517,24 +1519,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -1545,13 +1547,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1559,10 +1561,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1576,7 +1578,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>31</v>
@@ -1587,13 +1589,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1604,7 +1606,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>33</v>
@@ -1615,16 +1617,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1632,7 +1634,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
@@ -1646,7 +1648,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>37</v>
@@ -1657,16 +1659,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,38 +1676,38 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1713,13 +1715,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D40" s="4">
         <v>899</v>
@@ -1727,13 +1729,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="4">
         <v>896</v>
@@ -1741,13 +1743,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" s="4">
         <v>900</v>
@@ -1755,13 +1757,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="4">
         <v>898</v>
@@ -1769,27 +1771,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1797,13 +1799,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D46" s="4">
         <v>166</v>
@@ -1811,13 +1813,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="4">
         <v>167</v>
@@ -1825,27 +1827,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1853,13 +1855,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1867,13 +1869,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D51" s="4">
         <v>80</v>
@@ -1881,13 +1883,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D52" s="4">
         <v>80</v>
@@ -1895,13 +1897,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1909,13 +1911,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1923,13 +1925,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1937,13 +1939,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1951,13 +1953,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D57" s="4">
         <v>40</v>
@@ -1965,13 +1967,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D58" s="4">
         <v>103</v>
@@ -1979,13 +1981,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D59" s="4">
         <v>103</v>
@@ -1993,13 +1995,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D60" s="4">
         <v>910</v>
@@ -2007,13 +2009,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2021,13 +2023,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D62" s="4">
         <v>745</v>
@@ -2035,13 +2037,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -2049,13 +2051,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -2063,13 +2065,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2077,27 +2079,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D67" s="4">
         <v>31</v>
@@ -2105,13 +2107,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D68" s="4">
         <v>2</v>
@@ -2119,41 +2121,41 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2161,13 +2163,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2175,13 +2177,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2189,13 +2191,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D74" s="4">
         <v>211</v>
@@ -2203,27 +2205,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2231,27 +2233,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D78" s="4">
         <v>820</v>
@@ -2259,13 +2261,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D79" s="4">
         <v>819</v>
@@ -2273,13 +2275,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D80" s="4">
         <v>553</v>
@@ -2287,13 +2289,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="D81" s="4">
         <v>433</v>
@@ -2301,13 +2303,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D82" s="4">
         <v>72</v>
@@ -2315,13 +2317,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D83" s="4">
         <v>86</v>
@@ -2329,13 +2331,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D84" s="4">
         <v>87</v>
@@ -2343,27 +2345,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D86" s="4">
         <v>55</v>
@@ -2371,13 +2373,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D87" s="4">
         <v>54</v>
@@ -2385,13 +2387,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D88" s="4">
         <v>994</v>
@@ -2399,13 +2401,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D89" s="4">
         <v>695</v>
@@ -2413,27 +2415,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="D90" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2441,27 +2443,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D92" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2469,13 +2471,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D94" s="4">
         <v>53</v>
@@ -2483,13 +2485,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D95" s="4">
         <v>107</v>
@@ -2497,13 +2499,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D96" s="4">
         <v>918</v>
@@ -2511,13 +2513,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D97" s="4">
         <v>747</v>
@@ -2525,13 +2527,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D98" s="4">
         <v>449</v>
@@ -2539,13 +2541,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D99" s="4">
         <v>170</v>
@@ -2553,13 +2555,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D100" s="4">
         <v>163</v>
@@ -2567,13 +2569,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D101" s="4">
         <v>799</v>
@@ -2581,13 +2583,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D102" s="4">
         <v>1127</v>
@@ -2595,13 +2597,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D103" s="4">
         <v>569</v>
@@ -2609,13 +2611,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D104" s="4">
         <v>762</v>
@@ -2623,13 +2625,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2637,13 +2639,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D106" s="4">
         <v>211</v>
@@ -2651,55 +2653,55 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="D107" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="D108" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="D109" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2707,27 +2709,27 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C111" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2735,13 +2737,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2754,18 +2756,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D78 A80:D113">
+  <conditionalFormatting sqref="A2:D37 A39:D113">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:D79">
+  <conditionalFormatting sqref="A38:D38">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A79))&gt;0</formula>
+      <formula>LEN(TRIM(A38))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55B99DF-977D-4AD1-A376-0F025B876C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4266AD7E-DDA3-4FD8-AF2C-63209F98940E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -278,9 +278,6 @@
     <t>S040043</t>
   </si>
   <si>
-    <t>PANO DE CHAO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010037</t>
   </si>
   <si>
@@ -413,12 +410,6 @@
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
   </si>
   <si>
-    <t>LENCOL HOSPITALAR PAPEL 50CMX50M - UNICA</t>
-  </si>
-  <si>
-    <t>S010084</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -705,6 +696,15 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>LENCOL HOSPITALAR DE PAPEL - 50CMX50M</t>
+  </si>
+  <si>
+    <t>S010024</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -812,7 +812,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1155,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1183,13 +1192,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1197,13 +1206,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1214,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1228,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1239,13 +1248,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1253,44 +1262,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1298,7 +1307,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1309,10 +1318,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1323,10 +1332,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1340,7 +1349,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1354,7 +1363,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1368,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1382,7 +1391,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1396,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1407,16 +1416,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,7 +1433,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1438,7 +1447,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1449,10 +1458,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1466,7 +1475,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -1480,7 +1489,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -1494,7 +1503,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1505,13 +1514,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D25" s="4">
         <v>904</v>
@@ -1519,24 +1528,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -1547,13 +1556,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1561,10 +1570,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1578,7 +1587,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>31</v>
@@ -1589,13 +1598,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1606,7 +1615,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>33</v>
@@ -1617,16 +1626,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,7 +1643,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
@@ -1648,7 +1657,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>37</v>
@@ -1659,16 +1668,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1676,21 +1685,21 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>40</v>
@@ -1704,7 +1713,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1718,7 +1727,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>44</v>
@@ -1732,7 +1741,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>44</v>
@@ -1746,7 +1755,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>44</v>
@@ -1760,7 +1769,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>44</v>
@@ -1771,27 +1780,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1802,7 +1811,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>49</v>
@@ -1816,7 +1825,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>49</v>
@@ -1827,27 +1836,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1858,7 +1867,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>52</v>
@@ -1872,7 +1881,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>54</v>
@@ -1886,7 +1895,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>56</v>
@@ -1897,13 +1906,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1914,7 +1923,7 @@
         <v>57</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>58</v>
@@ -1925,13 +1934,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1939,16 +1948,16 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1956,7 +1965,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>60</v>
@@ -1970,7 +1979,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>62</v>
@@ -1984,7 +1993,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>64</v>
@@ -1998,7 +2007,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>64</v>
@@ -2012,7 +2021,7 @@
         <v>66</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>67</v>
@@ -2026,7 +2035,7 @@
         <v>68</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>69</v>
@@ -2040,7 +2049,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>71</v>
@@ -2054,7 +2063,7 @@
         <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>71</v>
@@ -2065,13 +2074,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2079,27 +2088,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D67" s="4">
         <v>31</v>
@@ -2110,7 +2119,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>74</v>
@@ -2121,30 +2130,30 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2152,7 +2161,7 @@
         <v>75</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>76</v>
@@ -2163,13 +2172,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2177,13 +2186,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2194,7 +2203,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>78</v>
@@ -2205,55 +2214,55 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D76" s="4">
-        <v>1</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D78" s="4">
         <v>820</v>
@@ -2261,13 +2270,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D79" s="4">
         <v>819</v>
@@ -2275,13 +2284,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D80" s="4">
         <v>553</v>
@@ -2289,13 +2298,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D81" s="4">
         <v>433</v>
@@ -2303,13 +2312,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D82" s="4">
         <v>72</v>
@@ -2317,13 +2326,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D83" s="4">
         <v>86</v>
@@ -2331,13 +2340,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D84" s="4">
         <v>87</v>
@@ -2345,27 +2354,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D86" s="4">
         <v>55</v>
@@ -2373,13 +2382,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D87" s="4">
         <v>54</v>
@@ -2387,13 +2396,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="4">
         <v>994</v>
@@ -2401,13 +2410,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D89" s="4">
         <v>695</v>
@@ -2415,27 +2424,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2443,27 +2452,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2471,13 +2480,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D94" s="4">
         <v>53</v>
@@ -2485,13 +2494,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D95" s="4">
         <v>107</v>
@@ -2499,13 +2508,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D96" s="4">
         <v>918</v>
@@ -2513,13 +2522,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D97" s="4">
         <v>747</v>
@@ -2527,13 +2536,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D98" s="4">
         <v>449</v>
@@ -2541,13 +2550,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D99" s="4">
         <v>170</v>
@@ -2555,13 +2564,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D100" s="4">
         <v>163</v>
@@ -2569,13 +2578,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D101" s="4">
         <v>799</v>
@@ -2583,13 +2592,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D102" s="4">
         <v>1127</v>
@@ -2597,13 +2606,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D103" s="4">
         <v>569</v>
@@ -2611,13 +2620,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D104" s="4">
         <v>762</v>
@@ -2625,13 +2634,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2639,13 +2648,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D106" s="4">
         <v>211</v>
@@ -2653,55 +2662,55 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2709,27 +2718,27 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2737,13 +2746,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2756,18 +2765,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D37 A39:D113">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D55 A57:D75 A77:D113">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:D38">
+  <conditionalFormatting sqref="A56:D56">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A56))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:D76">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A38))&gt;0</formula>
+      <formula>LEN(TRIM(A76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4266AD7E-DDA3-4FD8-AF2C-63209F98940E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB52FD-7B07-4E97-82D8-73EA031E61C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="219">
   <si>
     <t>Complemento</t>
   </si>
@@ -137,18 +137,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -230,15 +218,9 @@
     <t>S010026</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - 500ML - 500ML</t>
-  </si>
-  <si>
     <t>S010027</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - CIF</t>
-  </si>
-  <si>
     <t>LIVRO ATA - UNICA - UNICA</t>
   </si>
   <si>
@@ -467,18 +449,9 @@
     <t>DESINFETANTE LIQUIDO - 1000ML - 1000ML</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
@@ -705,6 +678,24 @@
   </si>
   <si>
     <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF</t>
   </si>
 </sst>
 </file>
@@ -812,16 +803,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1164,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:D76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1192,13 +1174,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1206,13 +1188,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1223,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1237,7 +1219,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -1248,13 +1230,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1262,44 +1244,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1307,7 +1289,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1318,10 +1300,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1332,10 +1314,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1349,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1363,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1377,7 +1359,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1391,7 +1373,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1405,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1416,16 +1398,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1433,7 +1415,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1447,7 +1429,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1458,10 +1440,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1475,7 +1457,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
@@ -1489,7 +1471,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -1503,7 +1485,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1514,13 +1496,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D25" s="4">
         <v>904</v>
@@ -1528,24 +1510,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -1556,13 +1538,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1570,10 +1552,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1587,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>31</v>
@@ -1598,69 +1580,69 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1668,41 +1650,41 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D38" s="4">
         <v>1159</v>
@@ -1710,13 +1692,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1724,13 +1706,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D40" s="4">
         <v>899</v>
@@ -1738,13 +1720,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D41" s="4">
         <v>896</v>
@@ -1752,13 +1734,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D42" s="4">
         <v>900</v>
@@ -1766,13 +1748,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D43" s="4">
         <v>898</v>
@@ -1780,27 +1762,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1808,13 +1790,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D46" s="4">
         <v>166</v>
@@ -1822,13 +1804,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D47" s="4">
         <v>167</v>
@@ -1836,27 +1818,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1864,13 +1846,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1878,13 +1860,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D51" s="4">
         <v>80</v>
@@ -1892,13 +1874,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D52" s="4">
         <v>80</v>
@@ -1906,13 +1888,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1920,13 +1902,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1934,13 +1916,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1948,13 +1930,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D56" s="4">
         <v>1163</v>
@@ -1962,13 +1944,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D57" s="4">
         <v>40</v>
@@ -1976,13 +1958,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D58" s="4">
         <v>103</v>
@@ -1990,13 +1972,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D59" s="4">
         <v>103</v>
@@ -2004,13 +1986,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D60" s="4">
         <v>910</v>
@@ -2018,13 +2000,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2032,13 +2014,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D62" s="4">
         <v>745</v>
@@ -2046,13 +2028,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -2060,13 +2042,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -2074,13 +2056,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2088,27 +2070,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D67" s="4">
         <v>31</v>
@@ -2116,13 +2098,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D68" s="4">
         <v>2</v>
@@ -2130,41 +2112,41 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2172,13 +2154,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2186,13 +2168,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2200,13 +2182,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D74" s="4">
         <v>211</v>
@@ -2214,27 +2196,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D76" s="4">
         <v>1166</v>
@@ -2242,27 +2224,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D78" s="4">
         <v>820</v>
@@ -2270,13 +2252,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D79" s="4">
         <v>819</v>
@@ -2284,13 +2266,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D80" s="4">
         <v>553</v>
@@ -2298,13 +2280,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D81" s="4">
         <v>433</v>
@@ -2312,13 +2294,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D82" s="4">
         <v>72</v>
@@ -2326,13 +2308,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D83" s="4">
         <v>86</v>
@@ -2340,13 +2322,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D84" s="4">
         <v>87</v>
@@ -2354,27 +2336,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D86" s="4">
         <v>55</v>
@@ -2382,13 +2364,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D87" s="4">
         <v>54</v>
@@ -2396,13 +2378,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D88" s="4">
         <v>994</v>
@@ -2410,13 +2392,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D89" s="4">
         <v>695</v>
@@ -2424,27 +2406,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2452,27 +2434,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2480,13 +2462,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D94" s="4">
         <v>53</v>
@@ -2494,13 +2476,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D95" s="4">
         <v>107</v>
@@ -2508,13 +2490,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D96" s="4">
         <v>918</v>
@@ -2522,13 +2504,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D97" s="4">
         <v>747</v>
@@ -2536,13 +2518,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D98" s="4">
         <v>449</v>
@@ -2550,13 +2532,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D99" s="4">
         <v>170</v>
@@ -2564,13 +2546,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D100" s="4">
         <v>163</v>
@@ -2578,13 +2560,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D101" s="4">
         <v>799</v>
@@ -2592,13 +2574,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D102" s="4">
         <v>1127</v>
@@ -2606,13 +2588,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D103" s="4">
         <v>569</v>
@@ -2620,13 +2602,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D104" s="4">
         <v>762</v>
@@ -2634,13 +2616,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2648,13 +2630,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D106" s="4">
         <v>211</v>
@@ -2662,55 +2644,55 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2718,27 +2700,27 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2746,13 +2728,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2765,23 +2747,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="15">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D55 A57:D75 A77:D113">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D58 A61:D113 B59:D60">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:D56">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A56))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76:D76">
+  <conditionalFormatting sqref="A59:A60">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A76))&gt;0</formula>
+      <formula>LEN(TRIM(A59))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB52FD-7B07-4E97-82D8-73EA031E61C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9106A970-AABB-4B1B-95BB-61BE4A966087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="218">
   <si>
     <t>Complemento</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -233,24 +227,15 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010030</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -383,15 +368,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010031</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -467,12 +446,6 @@
     <t>S230009</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
@@ -494,9 +467,6 @@
     <t>591</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -696,6 +666,33 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -803,7 +800,61 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1146,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:A60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1174,13 +1225,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1188,13 +1239,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1202,13 +1253,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1216,13 +1267,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="4">
         <v>103</v>
@@ -1230,13 +1281,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1244,55 +1295,55 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D10" s="4">
         <v>809</v>
@@ -1300,13 +1351,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4">
         <v>1046</v>
@@ -1314,13 +1365,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4">
         <v>1045</v>
@@ -1328,13 +1379,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D13" s="4">
         <v>103</v>
@@ -1342,13 +1393,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4">
         <v>33</v>
@@ -1356,13 +1407,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D15" s="4">
         <v>31</v>
@@ -1370,13 +1421,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D16" s="4">
         <v>20</v>
@@ -1384,13 +1435,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1398,27 +1449,27 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -1426,13 +1477,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -1440,13 +1491,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
@@ -1454,13 +1505,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1468,13 +1519,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -1482,13 +1533,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D24" s="4">
         <v>52</v>
@@ -1496,13 +1547,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D25" s="4">
         <v>904</v>
@@ -1510,27 +1561,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="4">
         <v>109</v>
@@ -1538,13 +1589,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1552,13 +1603,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="4">
         <v>105</v>
@@ -1566,13 +1617,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D30" s="4">
         <v>103</v>
@@ -1580,13 +1631,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1594,13 +1645,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1608,13 +1659,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1622,13 +1673,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1636,13 +1687,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1650,41 +1701,41 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="4">
         <v>1159</v>
@@ -1692,13 +1743,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1706,13 +1757,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D40" s="4">
         <v>899</v>
@@ -1720,13 +1771,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="4">
         <v>896</v>
@@ -1734,13 +1785,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="4">
         <v>900</v>
@@ -1748,13 +1799,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="4">
         <v>898</v>
@@ -1762,27 +1813,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1790,13 +1841,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D46" s="4">
         <v>166</v>
@@ -1804,13 +1855,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="4">
         <v>167</v>
@@ -1818,27 +1869,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1846,27 +1897,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4">
         <v>80</v>
@@ -1874,13 +1925,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D52" s="4">
         <v>80</v>
@@ -1888,13 +1939,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1902,13 +1953,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1916,13 +1967,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1930,13 +1981,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D56" s="4">
         <v>1163</v>
@@ -1944,13 +1995,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D57" s="4">
         <v>40</v>
@@ -1958,13 +2009,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D58" s="4">
         <v>103</v>
@@ -1972,13 +2023,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="4">
         <v>103</v>
@@ -1986,13 +2037,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D60" s="4">
         <v>910</v>
@@ -2000,13 +2051,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2014,13 +2065,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D62" s="4">
         <v>745</v>
@@ -2028,13 +2079,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -2042,13 +2093,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -2056,13 +2107,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2070,27 +2121,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>143</v>
+        <v>109</v>
+      </c>
+      <c r="D66" s="4">
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D67" s="4">
         <v>31</v>
@@ -2098,13 +2149,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D68" s="4">
         <v>2</v>
@@ -2112,41 +2163,41 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2154,13 +2205,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2168,13 +2219,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2182,13 +2233,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D74" s="4">
         <v>211</v>
@@ -2196,27 +2247,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D76" s="4">
         <v>1166</v>
@@ -2224,27 +2275,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>124</v>
+        <v>142</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D78" s="4">
         <v>820</v>
@@ -2252,13 +2303,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D79" s="4">
         <v>819</v>
@@ -2266,13 +2317,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D80" s="4">
         <v>553</v>
@@ -2280,13 +2331,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D81" s="4">
         <v>433</v>
@@ -2294,13 +2345,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D82" s="4">
         <v>72</v>
@@ -2308,13 +2359,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D83" s="4">
         <v>86</v>
@@ -2322,13 +2373,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D84" s="4">
         <v>87</v>
@@ -2336,27 +2387,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D86" s="4">
         <v>55</v>
@@ -2364,13 +2415,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D87" s="4">
         <v>54</v>
@@ -2378,13 +2429,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D88" s="4">
         <v>994</v>
@@ -2392,13 +2443,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D89" s="4">
         <v>695</v>
@@ -2406,27 +2457,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2434,27 +2485,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2462,13 +2513,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D94" s="4">
         <v>53</v>
@@ -2476,13 +2527,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D95" s="4">
         <v>107</v>
@@ -2490,13 +2541,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D96" s="4">
         <v>918</v>
@@ -2504,13 +2555,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D97" s="4">
         <v>747</v>
@@ -2518,13 +2569,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D98" s="4">
         <v>449</v>
@@ -2532,13 +2583,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D99" s="4">
         <v>170</v>
@@ -2546,13 +2597,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D100" s="4">
         <v>163</v>
@@ -2560,13 +2611,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D101" s="4">
         <v>799</v>
@@ -2574,13 +2625,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D102" s="4">
         <v>1127</v>
@@ -2588,13 +2639,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D103" s="4">
         <v>569</v>
@@ -2602,13 +2653,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D104" s="4">
         <v>762</v>
@@ -2616,13 +2667,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2630,13 +2681,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D106" s="4">
         <v>211</v>
@@ -2644,55 +2695,55 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2700,27 +2751,27 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2728,13 +2779,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2747,18 +2798,48 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="8" priority="24">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D58 A61:D113 B59:D60">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D3 A5:D49 A51:D62 A68:D70 A72:D76 A78:D113">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:A60">
+  <conditionalFormatting sqref="A4:D4">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(A4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:D50">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(A50))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:D67 A63:D64">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A63))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:A67">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A65))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:D71">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B71))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A71))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:D77">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A59))&gt;0</formula>
+      <formula>LEN(TRIM(A77))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9106A970-AABB-4B1B-95BB-61BE4A966087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E0BE8B-ADB9-48E9-BDE8-DA585221C9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="216">
   <si>
     <t>Complemento</t>
   </si>
@@ -596,24 +596,6 @@
     <t>S150189</t>
   </si>
   <si>
-    <t>MOP PO REFIL - UNICA</t>
-  </si>
-  <si>
-    <t>S010076</t>
-  </si>
-  <si>
-    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010034</t>
-  </si>
-  <si>
-    <t>KIT MOP UMIDO - UNICA</t>
-  </si>
-  <si>
-    <t>S010086</t>
-  </si>
-  <si>
     <t>AVENTAL C/ MANGA - UNICA</t>
   </si>
   <si>
@@ -693,6 +675,18 @@
   </si>
   <si>
     <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>MOP - KIT UMIDO</t>
+  </si>
+  <si>
+    <t>S010075</t>
+  </si>
+  <si>
+    <t>MOP - REFIL PO</t>
+  </si>
+  <si>
+    <t>MOP - REFIL UMIDO</t>
   </si>
 </sst>
 </file>
@@ -800,61 +794,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1197,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:D77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,13 +1165,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1253,7 +1193,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>171</v>
@@ -1309,13 +1249,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>117</v>
@@ -1631,7 +1571,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>171</v>
@@ -1645,7 +1585,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>171</v>
@@ -1659,7 +1599,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>171</v>
@@ -1673,7 +1613,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>171</v>
@@ -1729,7 +1669,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>171</v>
@@ -1827,13 +1767,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1897,7 +1837,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>171</v>
@@ -1939,13 +1879,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1953,13 +1893,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1967,55 +1907,55 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="D55" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="D56" s="4">
-        <v>1163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D57" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D58" s="4">
         <v>103</v>
@@ -2023,7 +1963,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>171</v>
@@ -2032,54 +1972,54 @@
         <v>57</v>
       </c>
       <c r="D59" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D60" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D61" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>171</v>
@@ -2088,26 +2028,26 @@
         <v>62</v>
       </c>
       <c r="D63" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="D64" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>170</v>
@@ -2116,12 +2056,12 @@
         <v>109</v>
       </c>
       <c r="D65" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>170</v>
@@ -2130,26 +2070,26 @@
         <v>109</v>
       </c>
       <c r="D66" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D67" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>171</v>
@@ -2157,13 +2097,13 @@
       <c r="C68" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="4">
-        <v>2</v>
+      <c r="D68" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>171</v>
@@ -2172,63 +2112,63 @@
         <v>64</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>138</v>
+        <v>65</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="D71" s="4">
-        <v>1</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D72" s="4">
-        <v>1</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2261,7 +2201,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>171</v>
@@ -2275,7 +2215,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>171</v>
@@ -2667,13 +2607,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2798,48 +2738,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="8" priority="24">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D3 A5:D49 A51:D62 A68:D70 A72:D76 A78:D113">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+  <conditionalFormatting sqref="A2:D70 A74:D113">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(A4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:D50">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(A50))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65:D67 A63:D64">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A63))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:A67">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A65))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:D71">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B71))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A71:D73">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A71))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:D77">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A77))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E0BE8B-ADB9-48E9-BDE8-DA585221C9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B6F06-7A0B-452E-85DF-60EC53DF904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$114</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="217">
   <si>
     <t>Complemento</t>
   </si>
@@ -227,9 +227,6 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>S010030</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t>S010005</t>
   </si>
   <si>
-    <t>AGULHA - UNICA</t>
-  </si>
-  <si>
     <t>S010072</t>
   </si>
   <si>
@@ -368,9 +362,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>S010031</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -497,9 +488,6 @@
     <t>S020118</t>
   </si>
   <si>
-    <t>SACO P/ LIXO C/10UN - 30LT</t>
-  </si>
-  <si>
     <t>S010057</t>
   </si>
   <si>
@@ -656,21 +644,6 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - UNICA</t>
   </si>
   <si>
@@ -687,6 +660,36 @@
   </si>
   <si>
     <t>MOP - REFIL UMIDO</t>
+  </si>
+  <si>
+    <t>AGULHA 12X40MM - 100UN</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO C/10UN - 30L</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080024</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080023</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
   </si>
 </sst>
 </file>
@@ -794,7 +797,43 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1135,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:D73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1165,13 +1204,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1179,24 +1218,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1210,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1221,13 +1260,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1235,44 +1274,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1280,7 +1319,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1291,10 +1330,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1305,10 +1344,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1322,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1336,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1350,7 +1389,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -1364,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1378,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1389,16 +1428,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,7 +1445,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -1420,7 +1459,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -1431,10 +1470,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -1448,7 +1487,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1462,7 +1501,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1476,7 +1515,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
@@ -1487,13 +1526,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D25" s="4">
         <v>904</v>
@@ -1501,24 +1540,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1529,13 +1568,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1543,10 +1582,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1560,7 +1599,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>30</v>
@@ -1571,13 +1610,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1585,13 +1624,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1599,13 +1638,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1613,13 +1652,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1630,7 +1669,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>32</v>
@@ -1641,16 +1680,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1658,27 +1697,27 @@
         <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,7 +1725,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1700,7 +1739,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1714,7 +1753,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>39</v>
@@ -1728,7 +1767,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>39</v>
@@ -1742,7 +1781,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
@@ -1753,27 +1792,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1784,7 +1823,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>44</v>
@@ -1798,7 +1837,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>44</v>
@@ -1809,27 +1848,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1837,10 +1876,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1854,7 +1893,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1868,7 +1907,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1882,7 +1921,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>52</v>
@@ -1893,13 +1932,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1907,13 +1946,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D55" s="4">
         <v>1163</v>
@@ -1924,7 +1963,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>54</v>
@@ -1938,7 +1977,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>56</v>
@@ -1949,10 +1988,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -1963,10 +2002,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1980,7 +2019,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -1994,7 +2033,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>61</v>
@@ -2005,13 +2044,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -2019,737 +2058,771 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="D63" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="D64" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="D65" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="D66" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="D67" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>136</v>
+        <v>63</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D70" s="4">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="D71" s="4">
-        <v>1172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D72" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D73" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="D74" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>141</v>
+        <v>66</v>
+      </c>
+      <c r="D75" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1166</v>
+        <v>137</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="D77" s="4">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D78" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D79" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D80" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="D81" s="4">
-        <v>433</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="D82" s="4">
-        <v>72</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D83" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D84" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>145</v>
+        <v>75</v>
+      </c>
+      <c r="D85" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" s="4">
-        <v>55</v>
+        <v>75</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D87" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D88" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D89" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>117</v>
+        <v>79</v>
+      </c>
+      <c r="D90" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D91" s="4">
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>117</v>
+        <v>82</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D93" s="4">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D94" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D95" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D96" s="4">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="D97" s="4">
-        <v>747</v>
+        <v>918</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D98" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="D99" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D100" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D101" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D102" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D103" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D104" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="D105" s="4">
-        <v>1</v>
+        <v>762</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="D106" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>117</v>
+        <v>97</v>
+      </c>
+      <c r="D107" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D110" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>163</v>
+        <v>110</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D112" s="4">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D113" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D113">
-      <sortCondition ref="A1:A113"/>
+  <autoFilter ref="A1:D114" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D114">
+      <sortCondition ref="A1:A114"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="6" priority="33">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D70 A74:D113">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D61 A68:D114">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:D73">
+  <conditionalFormatting sqref="A62:D64">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A62))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:A67 C65:D67">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A65))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B65))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(B66))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A71))&gt;0</formula>
+      <formula>LEN(TRIM(B67))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B6F06-7A0B-452E-85DF-60EC53DF904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B7F333-FC4E-44DC-B845-8C4FCA4729D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="215">
   <si>
     <t>Complemento</t>
   </si>
@@ -362,15 +362,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>SACO DE LIXO INFECTANTE - 50LTS</t>
-  </si>
-  <si>
     <t>S010062</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - ÚNICA</t>
-  </si>
-  <si>
     <t>S150190</t>
   </si>
   <si>
@@ -572,24 +566,12 @@
     <t>S020048</t>
   </si>
   <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
-  </si>
-  <si>
     <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
   </si>
   <si>
     <t>S150189</t>
   </si>
   <si>
-    <t>AVENTAL C/ MANGA - UNICA</t>
-  </si>
-  <si>
-    <t>S150204</t>
-  </si>
-  <si>
     <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
   </si>
   <si>
@@ -690,6 +672,18 @@
   </si>
   <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO INFECTANTE - 50L</t>
+  </si>
+  <si>
+    <t>AVENTAL DESCARTAVEL TNT MANGA LONGA - 30G</t>
+  </si>
+  <si>
+    <t>S080016</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
   </si>
 </sst>
 </file>
@@ -797,52 +791,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1174,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:D67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1204,13 +1153,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1218,10 +1167,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>102</v>
@@ -1232,10 +1181,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1249,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1263,7 +1212,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>101</v>
@@ -1274,44 +1223,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>114</v>
+        <v>213</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,7 +1268,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1330,10 +1279,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1344,10 +1293,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1361,7 +1310,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1375,7 +1324,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1389,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -1403,7 +1352,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1417,7 +1366,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1428,16 +1377,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1445,7 +1394,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -1459,7 +1408,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -1470,10 +1419,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -1487,7 +1436,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1501,7 +1450,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1515,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
@@ -1529,7 +1478,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>104</v>
@@ -1540,24 +1489,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1568,13 +1517,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1582,10 +1531,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1599,7 +1548,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>30</v>
@@ -1610,13 +1559,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1624,13 +1573,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1638,13 +1587,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1652,13 +1601,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1669,7 +1618,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>32</v>
@@ -1680,16 +1629,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1697,21 +1646,21 @@
         <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1725,7 +1674,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1739,7 +1688,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1753,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>39</v>
@@ -1767,7 +1716,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>39</v>
@@ -1781,7 +1730,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
@@ -1792,27 +1741,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1823,7 +1772,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>44</v>
@@ -1837,7 +1786,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>44</v>
@@ -1848,27 +1797,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1876,10 +1825,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1893,7 +1842,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1907,7 +1856,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1921,7 +1870,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>52</v>
@@ -1935,7 +1884,7 @@
         <v>105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>106</v>
@@ -1946,16 +1895,16 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D55" s="4">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,7 +1912,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>54</v>
@@ -1977,7 +1926,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>56</v>
@@ -1988,10 +1937,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -2002,10 +1951,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -2019,7 +1968,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -2033,7 +1982,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>61</v>
@@ -2044,13 +1993,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -2058,13 +2007,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -2072,13 +2021,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -2086,13 +2035,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2100,13 +2049,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D66" s="4">
         <v>32</v>
@@ -2114,13 +2063,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D67" s="4">
         <v>31</v>
@@ -2131,7 +2080,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>63</v>
@@ -2142,38 +2091,38 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>64</v>
@@ -2184,13 +2133,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D72" s="4">
         <v>1172</v>
@@ -2198,13 +2147,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D73" s="4">
         <v>1173</v>
@@ -2212,13 +2161,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D74" s="4">
         <v>1174</v>
@@ -2229,7 +2178,7 @@
         <v>65</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>66</v>
@@ -2240,24 +2189,24 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>67</v>
@@ -2268,13 +2217,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D78" s="4">
         <v>1167</v>
@@ -2285,7 +2234,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>69</v>
@@ -2299,7 +2248,7 @@
         <v>70</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>69</v>
@@ -2313,7 +2262,7 @@
         <v>71</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>72</v>
@@ -2324,13 +2273,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D82" s="4">
         <v>433</v>
@@ -2338,10 +2287,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>73</v>
@@ -2355,7 +2304,7 @@
         <v>74</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>75</v>
@@ -2369,7 +2318,7 @@
         <v>76</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>75</v>
@@ -2380,24 +2329,24 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>77</v>
@@ -2408,10 +2357,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>77</v>
@@ -2425,7 +2374,7 @@
         <v>80</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>79</v>
@@ -2439,7 +2388,7 @@
         <v>78</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>79</v>
@@ -2450,16 +2399,16 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2467,7 +2416,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>82</v>
@@ -2478,16 +2427,16 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2495,7 +2444,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>84</v>
@@ -2509,7 +2458,7 @@
         <v>85</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>86</v>
@@ -2523,7 +2472,7 @@
         <v>87</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>88</v>
@@ -2534,27 +2483,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D97" s="4">
-        <v>918</v>
+        <v>986</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D98" s="4">
         <v>437</v>
@@ -2562,13 +2511,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D99" s="4">
         <v>449</v>
@@ -2579,7 +2528,7 @@
         <v>89</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>90</v>
@@ -2593,7 +2542,7 @@
         <v>91</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>90</v>
@@ -2607,7 +2556,7 @@
         <v>92</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>90</v>
@@ -2618,10 +2567,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>93</v>
@@ -2635,7 +2584,7 @@
         <v>94</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>93</v>
@@ -2649,7 +2598,7 @@
         <v>95</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>93</v>
@@ -2660,13 +2609,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2677,7 +2626,7 @@
         <v>96</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>97</v>
@@ -2688,141 +2637,102 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D111" s="4">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>159</v>
+      <c r="D112" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D114" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D114" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D114">
-      <sortCondition ref="A1:A114"/>
+  <autoFilter ref="A1:D113" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D113">
+      <sortCondition ref="A1:A113"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="6" priority="33">
+    <cfRule type="expression" dxfId="1" priority="36">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D61 A68:D114">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="A2:D113">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:D64">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A62))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:A67 C65:D67">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A65))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B65))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(B66))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B67))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B7F333-FC4E-44DC-B845-8C4FCA4729D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C06ABF-043B-4BD3-830F-B3C344C7DC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:XFD109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C06ABF-043B-4BD3-830F-B3C344C7DC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF12E669-EB0E-40A9-9698-DD38A5C3A5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -233,9 +233,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -626,9 +623,6 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
@@ -684,6 +678,12 @@
   </si>
   <si>
     <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -791,7 +791,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1125,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1153,13 +1162,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1167,13 +1176,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
@@ -1181,10 +1190,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1198,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1209,13 +1218,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1223,27 +1232,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1251,16 +1260,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,7 +1277,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1279,10 +1288,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1293,10 +1302,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1310,7 +1319,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1324,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1338,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -1352,7 +1361,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1366,7 +1375,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1377,16 +1386,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1394,7 +1403,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -1408,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -1419,10 +1428,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -1436,7 +1445,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1450,7 +1459,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1464,7 +1473,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
@@ -1475,13 +1484,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D25" s="4">
         <v>904</v>
@@ -1489,24 +1498,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1517,13 +1526,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1531,10 +1540,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1548,7 +1557,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>30</v>
@@ -1559,13 +1568,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1573,13 +1582,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1587,13 +1596,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1601,13 +1610,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1618,7 +1627,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>32</v>
@@ -1629,16 +1638,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1646,21 +1655,21 @@
         <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1674,7 +1683,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1688,7 +1697,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1702,7 +1711,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>39</v>
@@ -1716,7 +1725,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>39</v>
@@ -1730,7 +1739,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
@@ -1741,27 +1750,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1772,7 +1781,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>44</v>
@@ -1786,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>44</v>
@@ -1797,27 +1806,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1825,10 +1834,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1842,7 +1851,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1856,7 +1865,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1870,7 +1879,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>52</v>
@@ -1881,13 +1890,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1895,13 +1904,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D55" s="4">
         <v>1164</v>
@@ -1912,7 +1921,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>54</v>
@@ -1926,7 +1935,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>56</v>
@@ -1937,10 +1946,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -1951,10 +1960,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1968,7 +1977,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -1982,7 +1991,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>61</v>
@@ -1993,13 +2002,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -2007,13 +2016,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -2021,13 +2030,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -2035,13 +2044,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2049,13 +2058,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D66" s="4">
         <v>32</v>
@@ -2063,13 +2072,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D67" s="4">
         <v>31</v>
@@ -2080,7 +2089,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>63</v>
@@ -2091,55 +2100,55 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="D71" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D72" s="4">
         <v>1172</v>
@@ -2147,13 +2156,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D73" s="4">
         <v>1173</v>
@@ -2161,13 +2170,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D74" s="4">
         <v>1174</v>
@@ -2175,13 +2184,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D75" s="4">
         <v>211</v>
@@ -2189,41 +2198,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D77" s="4">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D78" s="4">
         <v>1167</v>
@@ -2231,13 +2240,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D79" s="4">
         <v>820</v>
@@ -2245,13 +2254,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D80" s="4">
         <v>819</v>
@@ -2259,13 +2268,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D81" s="4">
         <v>553</v>
@@ -2273,13 +2282,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D82" s="4">
         <v>433</v>
@@ -2287,13 +2296,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D83" s="4">
         <v>72</v>
@@ -2301,13 +2310,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D84" s="4">
         <v>86</v>
@@ -2315,13 +2324,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D85" s="4">
         <v>87</v>
@@ -2329,27 +2338,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D87" s="4">
         <v>55</v>
@@ -2357,13 +2366,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D88" s="4">
         <v>54</v>
@@ -2371,13 +2380,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D89" s="4">
         <v>994</v>
@@ -2385,13 +2394,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D90" s="4">
         <v>695</v>
@@ -2399,27 +2408,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D91" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2427,27 +2436,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D93" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2455,13 +2464,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D95" s="4">
         <v>53</v>
@@ -2469,13 +2478,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D96" s="4">
         <v>107</v>
@@ -2483,13 +2492,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D97" s="4">
         <v>986</v>
@@ -2497,13 +2506,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D98" s="4">
         <v>437</v>
@@ -2511,13 +2520,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="D99" s="4">
         <v>449</v>
@@ -2525,13 +2534,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D100" s="4">
         <v>170</v>
@@ -2539,13 +2548,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D101" s="4">
         <v>163</v>
@@ -2553,13 +2562,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D102" s="4">
         <v>799</v>
@@ -2567,13 +2576,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D103" s="4">
         <v>1127</v>
@@ -2581,13 +2590,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D104" s="4">
         <v>569</v>
@@ -2595,13 +2604,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D105" s="4">
         <v>762</v>
@@ -2609,13 +2618,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2623,13 +2632,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D107" s="4">
         <v>211</v>
@@ -2637,41 +2646,41 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="D108" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D109" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2679,27 +2688,27 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C111" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2707,13 +2716,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2726,13 +2735,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="36">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D113">
+  <conditionalFormatting sqref="A2:D70 A72:D113">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:D71">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF12E669-EB0E-40A9-9698-DD38A5C3A5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4506E4-6F70-4A5F-B328-9810B52245E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -791,16 +791,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1134,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,7 +2282,7 @@
         <v>159</v>
       </c>
       <c r="D82" s="4">
-        <v>433</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2735,18 +2726,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="1" priority="37">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D70 A72:D113">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D113">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:D71">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4506E4-6F70-4A5F-B328-9810B52245E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA545E-F0E0-4C59-9A2F-F8216EE23440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -515,9 +515,6 @@
     <t>S110036</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO PC C/4UND - PACOTE - PACOTE</t>
-  </si>
-  <si>
     <t>S010040</t>
   </si>
   <si>
@@ -684,6 +681,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO PC C/4UND - PACOTE C/ 4</t>
   </si>
 </sst>
 </file>
@@ -791,7 +791,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1126,7 +1135,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1153,13 +1162,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1167,10 +1176,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>101</v>
@@ -1181,10 +1190,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1198,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1212,7 +1221,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>100</v>
@@ -1226,7 +1235,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>109</v>
@@ -1237,13 +1246,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1254,7 +1263,7 @@
         <v>112</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>113</v>
@@ -1268,7 +1277,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1282,7 +1291,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1296,7 +1305,7 @@
         <v>116</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1310,7 +1319,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1324,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1338,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -1352,7 +1361,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1366,7 +1375,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1380,7 +1389,7 @@
         <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>118</v>
@@ -1394,7 +1403,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -1408,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -1419,10 +1428,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -1436,7 +1445,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1450,7 +1459,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1464,7 +1473,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
@@ -1478,7 +1487,7 @@
         <v>102</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>103</v>
@@ -1492,7 +1501,7 @@
         <v>119</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>103</v>
@@ -1506,7 +1515,7 @@
         <v>121</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1517,13 +1526,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1534,7 +1543,7 @@
         <v>122</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1548,7 +1557,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>30</v>
@@ -1559,10 +1568,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>123</v>
@@ -1573,10 +1582,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>123</v>
@@ -1587,10 +1596,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>123</v>
@@ -1601,10 +1610,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>123</v>
@@ -1618,7 +1627,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>32</v>
@@ -1632,7 +1641,7 @@
         <v>124</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>125</v>
@@ -1646,7 +1655,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>34</v>
@@ -1657,10 +1666,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1674,7 +1683,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1688,7 +1697,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1702,7 +1711,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>39</v>
@@ -1716,7 +1725,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>39</v>
@@ -1730,7 +1739,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
@@ -1741,13 +1750,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>111</v>
@@ -1755,13 +1764,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1772,7 +1781,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>44</v>
@@ -1786,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>44</v>
@@ -1800,7 +1809,7 @@
         <v>127</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>128</v>
@@ -1811,13 +1820,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1825,10 +1834,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1842,7 +1851,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1856,7 +1865,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1870,7 +1879,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>52</v>
@@ -1884,7 +1893,7 @@
         <v>104</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>105</v>
@@ -1895,13 +1904,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="D55" s="4">
         <v>1164</v>
@@ -1912,7 +1921,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>54</v>
@@ -1926,7 +1935,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>56</v>
@@ -1937,10 +1946,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -1951,10 +1960,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1968,7 +1977,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -1982,7 +1991,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>61</v>
@@ -1993,13 +2002,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -2007,13 +2016,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -2021,13 +2030,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -2035,13 +2044,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2049,13 +2058,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D66" s="4">
         <v>32</v>
@@ -2063,13 +2072,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D67" s="4">
         <v>31</v>
@@ -2080,7 +2089,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>63</v>
@@ -2094,7 +2103,7 @@
         <v>129</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>63</v>
@@ -2108,7 +2117,7 @@
         <v>131</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>63</v>
@@ -2119,13 +2128,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D71" s="4">
         <v>1181</v>
@@ -2133,13 +2142,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D72" s="4">
         <v>1172</v>
@@ -2147,13 +2156,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D73" s="4">
         <v>1173</v>
@@ -2161,13 +2170,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D74" s="4">
         <v>1174</v>
@@ -2178,7 +2187,7 @@
         <v>64</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>65</v>
@@ -2192,7 +2201,7 @@
         <v>133</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>134</v>
@@ -2203,10 +2212,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>66</v>
@@ -2217,10 +2226,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>136</v>
@@ -2234,7 +2243,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>68</v>
@@ -2248,7 +2257,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>68</v>
@@ -2262,7 +2271,7 @@
         <v>70</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>71</v>
@@ -2273,13 +2282,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D82" s="4">
         <v>1168</v>
@@ -2290,7 +2299,7 @@
         <v>137</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>72</v>
@@ -2304,7 +2313,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>74</v>
@@ -2318,7 +2327,7 @@
         <v>75</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>74</v>
@@ -2332,7 +2341,7 @@
         <v>138</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>74</v>
@@ -2346,7 +2355,7 @@
         <v>140</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>76</v>
@@ -2360,7 +2369,7 @@
         <v>141</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>76</v>
@@ -2374,7 +2383,7 @@
         <v>79</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>78</v>
@@ -2388,7 +2397,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>78</v>
@@ -2402,7 +2411,7 @@
         <v>142</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>143</v>
@@ -2416,7 +2425,7 @@
         <v>80</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>81</v>
@@ -2430,7 +2439,7 @@
         <v>144</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>145</v>
@@ -2444,7 +2453,7 @@
         <v>82</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>83</v>
@@ -2458,7 +2467,7 @@
         <v>84</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>85</v>
@@ -2472,7 +2481,7 @@
         <v>86</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>87</v>
@@ -2483,10 +2492,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>106</v>
@@ -2497,10 +2506,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>146</v>
@@ -2514,7 +2523,7 @@
         <v>147</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>148</v>
@@ -2528,7 +2537,7 @@
         <v>88</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>89</v>
@@ -2542,7 +2551,7 @@
         <v>90</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>89</v>
@@ -2556,7 +2565,7 @@
         <v>91</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>89</v>
@@ -2570,7 +2579,7 @@
         <v>149</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>92</v>
@@ -2584,7 +2593,7 @@
         <v>93</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>92</v>
@@ -2598,7 +2607,7 @@
         <v>94</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>92</v>
@@ -2609,13 +2618,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2626,7 +2635,7 @@
         <v>95</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>96</v>
@@ -2640,7 +2649,7 @@
         <v>150</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>151</v>
@@ -2654,7 +2663,7 @@
         <v>152</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>153</v>
@@ -2665,10 +2674,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>107</v>
@@ -2682,7 +2691,7 @@
         <v>154</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>155</v>
@@ -2693,10 +2702,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>157</v>
@@ -2710,7 +2719,7 @@
         <v>97</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>98</v>
@@ -2726,13 +2735,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="37">
+    <cfRule type="expression" dxfId="2" priority="38">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D113">
+  <conditionalFormatting sqref="A2:D81 A83:D113 B82:D82">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A82))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA545E-F0E0-4C59-9A2F-F8216EE23440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BF051D-D1CB-4627-8274-A18B9585D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="213">
   <si>
     <t>Complemento</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>S010004</t>
-  </si>
-  <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
   </si>
   <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
@@ -791,16 +785,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1132,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1162,13 +1147,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1176,13 +1161,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
@@ -1190,10 +1175,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1204,156 +1189,156 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="4">
-        <v>53</v>
+        <v>107</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>110</v>
+        <v>208</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1208</v>
+        <v>111</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>114</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D10" s="4">
-        <v>809</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4">
-        <v>1045</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,41 +1346,41 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>111</v>
+        <v>17</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,41 +1388,41 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1445,7 +1430,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1459,41 +1444,41 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4">
-        <v>52</v>
+        <v>904</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="4">
-        <v>904</v>
+        <v>101</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,181 +1486,181 @@
         <v>119</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>120</v>
+        <v>25</v>
+      </c>
+      <c r="D26" s="4">
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="4">
-        <v>109</v>
+        <v>172</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="D28" s="4">
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="D30" s="4">
-        <v>103</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D31" s="4">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D32" s="4">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D33" s="4">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="D34" s="4">
-        <v>1179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>111</v>
+      <c r="D37" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="4">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,13 +1668,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1697,83 +1682,83 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D40" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D41" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D42" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="4">
-        <v>898</v>
+        <v>170</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>111</v>
+        <v>178</v>
+      </c>
+      <c r="D44" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="D45" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1781,69 +1766,69 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D46" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="4">
-        <v>167</v>
+        <v>126</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>111</v>
+        <v>158</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1851,7 +1836,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1865,24 +1850,24 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1890,30 +1875,30 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="D54" s="4">
-        <v>1</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="D55" s="4">
-        <v>1164</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1921,24 +1906,24 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D56" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1946,30 +1931,30 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D58" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1977,27 +1962,27 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="D61" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2005,10 +1990,10 @@
         <v>200</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -2016,30 +2001,30 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D63" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="D64" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2047,55 +2032,55 @@
         <v>204</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D65" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D66" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="D67" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="4">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2103,10 +2088,10 @@
         <v>129</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>130</v>
@@ -2114,30 +2099,30 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>132</v>
+        <v>211</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D71" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2145,80 +2130,80 @@
         <v>194</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D72" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D73" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c r="D74" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="4">
-        <v>211</v>
+        <v>132</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>135</v>
+        <v>64</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="D77" s="4">
         <v>1167</v>
@@ -2226,16 +2211,16 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="D78" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2243,69 +2228,69 @@
         <v>67</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D79" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="D80" s="4">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="D81" s="4">
-        <v>553</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="D82" s="4">
-        <v>1168</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2313,27 +2298,27 @@
         <v>73</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D84" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D85" s="4">
-        <v>87</v>
+        <v>72</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2341,111 +2326,111 @@
         <v>138</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>139</v>
+      <c r="D86" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D87" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D88" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D89" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90" s="4">
-        <v>695</v>
+        <v>141</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>111</v>
+        <v>79</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D92" s="4">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>111</v>
+        <v>81</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2459,7 +2444,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="4">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2467,69 +2452,69 @@
         <v>84</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D95" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D96" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D97" s="4">
-        <v>986</v>
+        <v>437</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D98" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="D99" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2537,111 +2522,111 @@
         <v>88</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D100" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D101" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D102" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D103" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D104" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="D105" s="4">
-        <v>762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="D106" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D107" s="4">
-        <v>211</v>
+        <v>149</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2649,104 +2634,85 @@
         <v>150</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>151</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D110" s="4">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>156</v>
+      <c r="D111" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D113" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D113" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D113">
-      <sortCondition ref="A1:A113"/>
+  <autoFilter ref="A1:D112" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D112">
+      <sortCondition ref="A1:A112"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="1" priority="38">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D81 A83:D113 B82:D82">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D112">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A82))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BF051D-D1CB-4627-8274-A18B9585D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5460034D-6077-47C8-A6CB-4B1528291F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -605,9 +605,6 @@
     <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
   </si>
   <si>
-    <t>LIMPADOR MULTIUSO - CIF</t>
-  </si>
-  <si>
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
   <si>
@@ -678,6 +675,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO PC C/4UND - PACOTE C/ 4</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1119,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1170,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>160</v>
@@ -1175,7 +1184,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>161</v>
@@ -1217,13 +1226,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1805,7 +1814,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>161</v>
@@ -1931,7 +1940,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>161</v>
@@ -1940,7 +1949,7 @@
         <v>55</v>
       </c>
       <c r="D58" s="4">
-        <v>910</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1973,13 +1982,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1987,13 +1996,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -2001,13 +2010,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -2015,13 +2024,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2029,13 +2038,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2043,13 +2052,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2099,13 +2108,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="4">
         <v>1181</v>
@@ -2113,13 +2122,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="D71" s="4">
         <v>1172</v>
@@ -2127,13 +2136,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D72" s="4">
         <v>1173</v>
@@ -2141,13 +2150,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D73" s="4">
         <v>1174</v>
@@ -2197,7 +2206,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>161</v>
@@ -2253,7 +2262,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>163</v>
@@ -2463,7 +2472,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>163</v>
@@ -2477,7 +2486,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>163</v>
@@ -2645,7 +2654,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>160</v>
@@ -2706,13 +2715,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="38">
+    <cfRule type="expression" dxfId="2" priority="39">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D112">
+  <conditionalFormatting sqref="A2:D57 A59:D112">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:D58">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5460034D-6077-47C8-A6CB-4B1528291F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BE83C8-8BF2-4936-8A2B-372084C1F9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="210">
   <si>
     <t>Complemento</t>
   </si>
@@ -260,9 +260,6 @@
     <t>S020025</t>
   </si>
   <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
     <t>S200035</t>
   </si>
   <si>
@@ -447,12 +444,6 @@
   </si>
   <si>
     <t>PAPEL TOALHA INTERFOLHADO - 1000 FLS</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
-  </si>
-  <si>
-    <t>88</t>
   </si>
   <si>
     <t>PILHA - AA</t>
@@ -785,16 +776,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1126,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:D58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1156,13 +1138,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1170,13 +1152,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
@@ -1184,10 +1166,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1198,13 +1180,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D5" s="4">
         <v>53</v>
@@ -1212,27 +1194,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1240,16 +1222,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1257,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1268,10 +1250,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1282,10 +1264,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
@@ -1299,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1313,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1327,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -1341,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1355,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1366,16 +1348,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,7 +1365,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1397,7 +1379,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -1408,10 +1390,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
@@ -1425,7 +1407,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1439,7 +1421,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1453,7 +1435,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1464,13 +1446,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D24" s="4">
         <v>904</v>
@@ -1478,24 +1460,24 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -1506,13 +1488,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -1520,10 +1502,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -1537,7 +1519,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1548,13 +1530,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1562,13 +1544,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1576,13 +1558,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1590,13 +1572,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1607,7 +1589,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>30</v>
@@ -1618,16 +1600,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,21 +1617,21 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1663,7 +1645,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1677,7 +1659,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1691,7 +1673,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -1705,7 +1687,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1719,7 +1701,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>37</v>
@@ -1730,27 +1712,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1761,7 +1743,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1775,7 +1757,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>42</v>
@@ -1786,27 +1768,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1814,10 +1796,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>44</v>
@@ -1831,7 +1813,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1845,7 +1827,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1859,7 +1841,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1870,13 +1852,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1884,13 +1866,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D54" s="4">
         <v>1164</v>
@@ -1901,7 +1883,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>52</v>
@@ -1915,7 +1897,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>54</v>
@@ -1926,10 +1908,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
@@ -1940,10 +1922,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>55</v>
@@ -1957,7 +1939,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1971,7 +1953,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -1982,13 +1964,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1996,13 +1978,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -2010,13 +1992,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -2024,13 +2006,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2038,13 +2020,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2052,13 +2034,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2069,7 +2051,7 @@
         <v>60</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>61</v>
@@ -2080,41 +2062,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D70" s="4">
         <v>1181</v>
@@ -2122,13 +2104,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D71" s="4">
         <v>1172</v>
@@ -2136,13 +2118,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D72" s="4">
         <v>1173</v>
@@ -2150,13 +2132,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D73" s="4">
         <v>1174</v>
@@ -2167,7 +2149,7 @@
         <v>62</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>63</v>
@@ -2178,24 +2160,24 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>64</v>
@@ -2206,13 +2188,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D77" s="4">
         <v>1167</v>
@@ -2223,7 +2205,7 @@
         <v>65</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>66</v>
@@ -2237,7 +2219,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>66</v>
@@ -2251,7 +2233,7 @@
         <v>68</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>69</v>
@@ -2262,13 +2244,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D81" s="4">
         <v>1168</v>
@@ -2276,10 +2258,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>70</v>
@@ -2293,7 +2275,7 @@
         <v>71</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>72</v>
@@ -2304,16 +2286,16 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D84" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2321,94 +2303,94 @@
         <v>136</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>137</v>
+        <v>73</v>
+      </c>
+      <c r="D85" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D86" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D87" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D88" s="4">
-        <v>994</v>
+        <v>138</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D89" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D90" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2416,170 +2398,170 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>109</v>
+        <v>82</v>
+      </c>
+      <c r="D92" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D93" s="4">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D94" s="4">
-        <v>53</v>
+        <v>986</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D95" s="4">
-        <v>107</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D96" s="4">
-        <v>986</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="D97" s="4">
-        <v>437</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" s="4">
         <v>163</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D98" s="4">
-        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D99" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D100" s="4">
-        <v>163</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D101" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D102" s="4">
-        <v>1127</v>
+        <v>762</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="D103" s="4">
-        <v>569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2587,80 +2569,80 @@
         <v>92</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D104" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D105" s="4">
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D106" s="4">
-        <v>211</v>
+        <v>148</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C108" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2668,65 +2650,32 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D111" s="4">
+        <v>95</v>
+      </c>
+      <c r="D110" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D112" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D112" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D112">
-      <sortCondition ref="A1:A112"/>
+  <autoFilter ref="A1:D110" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D110">
+      <sortCondition ref="A1:A110"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="1" priority="39">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D57 A59:D112">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D110">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:D58">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BE83C8-8BF2-4936-8A2B-372084C1F9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EFEEB5-565A-42F5-9485-D873C8E64CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="208">
   <si>
     <t>Complemento</t>
   </si>
@@ -245,9 +245,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -500,9 +497,6 @@
     <t>S110036</t>
   </si>
   <si>
-    <t>S010040</t>
-  </si>
-  <si>
     <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
   </si>
   <si>
@@ -524,9 +518,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PC C/100</t>
   </si>
   <si>
@@ -665,10 +656,13 @@
     <t>S080026</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO PC C/4UND - PACOTE C/ 4</t>
-  </si>
-  <si>
     <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 30MT PC C/4</t>
   </si>
 </sst>
 </file>
@@ -776,7 +770,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1111,7 +1114,7 @@
   <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD84"/>
+      <selection activeCell="A80" sqref="A80:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1138,13 +1141,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1152,13 +1155,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
@@ -1166,10 +1169,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1180,13 +1183,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D5" s="4">
         <v>53</v>
@@ -1194,27 +1197,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1222,16 +1225,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1239,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1250,10 +1253,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1264,10 +1267,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
@@ -1281,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1295,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1309,7 +1312,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -1323,7 +1326,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1337,7 +1340,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1348,16 +1351,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1365,7 +1368,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1379,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -1390,10 +1393,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
@@ -1407,7 +1410,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1421,7 +1424,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1435,7 +1438,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1446,13 +1449,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D24" s="4">
         <v>904</v>
@@ -1460,24 +1463,24 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -1488,13 +1491,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -1502,10 +1505,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -1519,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1530,13 +1533,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1544,13 +1547,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1558,13 +1561,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1572,13 +1575,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1589,7 +1592,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>30</v>
@@ -1600,16 +1603,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,21 +1620,21 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1645,7 +1648,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1659,7 +1662,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1673,7 +1676,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -1687,7 +1690,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1701,7 +1704,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>37</v>
@@ -1712,27 +1715,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1743,7 +1746,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1757,7 +1760,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>42</v>
@@ -1768,27 +1771,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1796,10 +1799,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>44</v>
@@ -1813,7 +1816,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1827,7 +1830,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1841,7 +1844,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1852,13 +1855,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1866,13 +1869,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D54" s="4">
         <v>1164</v>
@@ -1883,7 +1886,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>52</v>
@@ -1897,7 +1900,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>54</v>
@@ -1908,10 +1911,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
@@ -1922,10 +1925,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>55</v>
@@ -1939,7 +1942,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1953,7 +1956,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -1964,13 +1967,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1978,13 +1981,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1992,13 +1995,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -2006,13 +2009,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2020,13 +2023,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2034,13 +2037,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2051,7 +2054,7 @@
         <v>60</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>61</v>
@@ -2062,41 +2065,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D70" s="4">
         <v>1181</v>
@@ -2104,13 +2107,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D71" s="4">
         <v>1172</v>
@@ -2118,13 +2121,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D72" s="4">
         <v>1173</v>
@@ -2132,13 +2135,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D73" s="4">
         <v>1174</v>
@@ -2149,7 +2152,7 @@
         <v>62</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>63</v>
@@ -2160,24 +2163,24 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>64</v>
@@ -2188,13 +2191,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D77" s="4">
         <v>1167</v>
@@ -2205,7 +2208,7 @@
         <v>65</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>66</v>
@@ -2219,7 +2222,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>66</v>
@@ -2230,41 +2233,41 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D80" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="D81" s="4">
-        <v>1168</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D82" s="4">
         <v>72</v>
@@ -2272,13 +2275,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D83" s="4">
         <v>86</v>
@@ -2286,13 +2289,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D84" s="4">
         <v>55</v>
@@ -2300,13 +2303,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D85" s="4">
         <v>54</v>
@@ -2314,13 +2317,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D86" s="4">
         <v>994</v>
@@ -2328,13 +2331,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D87" s="4">
         <v>695</v>
@@ -2342,27 +2345,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D88" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2370,27 +2373,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D90" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2398,13 +2401,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D92" s="4">
         <v>53</v>
@@ -2412,13 +2415,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D93" s="4">
         <v>107</v>
@@ -2426,13 +2429,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D94" s="4">
         <v>986</v>
@@ -2440,13 +2443,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D95" s="4">
         <v>437</v>
@@ -2454,13 +2457,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D96" s="4">
         <v>449</v>
@@ -2468,13 +2471,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D97" s="4">
         <v>170</v>
@@ -2482,13 +2485,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D98" s="4">
         <v>163</v>
@@ -2496,13 +2499,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D99" s="4">
         <v>799</v>
@@ -2510,13 +2513,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D100" s="4">
         <v>1127</v>
@@ -2524,13 +2527,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D101" s="4">
         <v>569</v>
@@ -2538,13 +2541,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D102" s="4">
         <v>762</v>
@@ -2552,13 +2555,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2566,13 +2569,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D104" s="4">
         <v>211</v>
@@ -2580,41 +2583,41 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D105" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="D106" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -2622,27 +2625,27 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C108" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2650,13 +2653,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2669,13 +2672,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="2" priority="40">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D110">
+  <conditionalFormatting sqref="A2:D79 A82:D110">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:D81">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A80))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EFEEB5-565A-42F5-9485-D873C8E64CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9660DDE8-5C75-47E7-8409-33C422DB2B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -182,9 +182,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -663,6 +660,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 30MT PC C/4</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:D81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1141,13 +1141,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1155,13 +1155,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1183,13 +1183,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D5" s="4">
         <v>53</v>
@@ -1197,27 +1197,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1225,16 +1225,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1242,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
@@ -1284,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1298,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -1326,7 +1326,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1340,7 +1340,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -1351,16 +1351,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1382,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -1393,10 +1393,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
@@ -1410,7 +1410,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1424,7 +1424,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -1438,7 +1438,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1449,13 +1449,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D24" s="4">
         <v>904</v>
@@ -1463,24 +1463,24 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -1491,13 +1491,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -1522,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1533,13 +1533,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1547,13 +1547,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1561,13 +1561,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1575,13 +1575,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1592,7 +1592,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>30</v>
@@ -1603,16 +1603,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,21 +1620,21 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1648,7 +1648,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
@@ -1662,7 +1662,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>37</v>
@@ -1676,7 +1676,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -1690,7 +1690,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1704,7 +1704,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>37</v>
@@ -1715,27 +1715,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1746,7 +1746,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1760,7 +1760,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>42</v>
@@ -1771,27 +1771,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1799,10 +1799,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>44</v>
@@ -1816,7 +1816,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
@@ -1827,27 +1827,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D51" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1869,13 +1869,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D54" s="4">
         <v>1164</v>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D55" s="4">
         <v>40</v>
@@ -1897,13 +1897,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D56" s="4">
         <v>103</v>
@@ -1911,13 +1911,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="4">
         <v>1166</v>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D60" s="4">
         <v>745</v>
@@ -1967,13 +1967,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1981,13 +1981,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1995,13 +1995,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -2009,13 +2009,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2023,13 +2023,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2037,13 +2037,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2051,13 +2051,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D67" s="4">
         <v>2</v>
@@ -2065,41 +2065,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="D70" s="4">
         <v>1181</v>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D71" s="4">
         <v>1172</v>
@@ -2121,13 +2121,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D72" s="4">
         <v>1173</v>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D73" s="4">
         <v>1174</v>
@@ -2149,13 +2149,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D74" s="4">
         <v>211</v>
@@ -2163,27 +2163,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D76" s="4">
         <v>1167</v>
@@ -2191,13 +2191,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D77" s="4">
         <v>1167</v>
@@ -2205,13 +2205,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D78" s="4">
         <v>820</v>
@@ -2219,13 +2219,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D79" s="4">
         <v>819</v>
@@ -2233,13 +2233,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D80" s="4">
         <v>1394</v>
@@ -2247,13 +2247,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D81" s="4">
         <v>1393</v>
@@ -2261,13 +2261,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D82" s="4">
         <v>72</v>
@@ -2275,13 +2275,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D83" s="4">
         <v>86</v>
@@ -2289,13 +2289,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D84" s="4">
         <v>55</v>
@@ -2303,13 +2303,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D85" s="4">
         <v>54</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D86" s="4">
         <v>994</v>
@@ -2331,13 +2331,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D87" s="4">
         <v>695</v>
@@ -2345,27 +2345,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D88" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2373,27 +2373,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D90" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2401,13 +2401,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D92" s="4">
         <v>53</v>
@@ -2415,13 +2415,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D93" s="4">
         <v>107</v>
@@ -2429,13 +2429,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D94" s="4">
         <v>986</v>
@@ -2443,13 +2443,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D95" s="4">
         <v>437</v>
@@ -2457,13 +2457,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D96" s="4">
         <v>449</v>
@@ -2471,13 +2471,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D97" s="4">
         <v>170</v>
@@ -2485,13 +2485,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D98" s="4">
         <v>163</v>
@@ -2499,13 +2499,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D99" s="4">
         <v>799</v>
@@ -2513,13 +2513,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D100" s="4">
         <v>1127</v>
@@ -2527,13 +2527,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D101" s="4">
         <v>569</v>
@@ -2541,13 +2541,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D102" s="4">
         <v>762</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2569,13 +2569,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D104" s="4">
         <v>211</v>
@@ -2583,41 +2583,41 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="D105" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="D106" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -2625,27 +2625,27 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C108" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2653,13 +2653,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2672,18 +2672,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="40">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D79 A82:D110">
+  <conditionalFormatting sqref="A2:D50 A52:D110">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:D81">
+  <conditionalFormatting sqref="A51:D51">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A80))&gt;0</formula>
+      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9660DDE8-5C75-47E7-8409-33C422DB2B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB6EC8D-88E0-40A4-873D-4741A22E896E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="198">
   <si>
     <t>Complemento</t>
   </si>
@@ -83,9 +83,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -98,15 +95,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -128,24 +119,15 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -185,12 +167,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S050012</t>
-  </si>
-  <si>
     <t>LIGA AMARELA N°18 - 100 UND</t>
   </si>
   <si>
@@ -206,9 +182,6 @@
     <t>S010027</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -266,15 +239,9 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
-    <t>RODO - UNICA</t>
-  </si>
-  <si>
     <t>S110029</t>
   </si>
   <si>
@@ -317,9 +284,6 @@
     <t>S040046</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -338,9 +302,6 @@
     <t>S010009</t>
   </si>
   <si>
-    <t>LANCETAS - UNICA</t>
-  </si>
-  <si>
     <t>S150191</t>
   </si>
   <si>
@@ -356,39 +317,21 @@
     <t>S020071</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>BALDE - 10L - 10L</t>
   </si>
   <si>
     <t>S110003</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>BOBINA P/ PONTO ELETRONICO - 57X300 (GRANDE)</t>
   </si>
   <si>
     <t>BOBINA P/ PONTO ELETRONICO - 57X40 (PEQUENA)</t>
   </si>
   <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>COLETOR PERFURO-CORTANTE - 7LTS</t>
   </si>
   <si>
-    <t>903</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 150ML - 150ML</t>
   </si>
   <si>
@@ -404,36 +347,21 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - VERMELHO - VERMELHO</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>PA PLASTICA P/ LIXO - CABO LONGO</t>
   </si>
   <si>
     <t>S110020</t>
   </si>
   <si>
-    <t>591</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -446,15 +374,9 @@
     <t>PILHA - AAA</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
@@ -470,9 +392,6 @@
     <t>SACOLA PLASTICA - 25X30</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
@@ -494,9 +413,6 @@
     <t>S110036</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
     <t>S050008</t>
   </si>
   <si>
@@ -527,15 +443,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
-    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
@@ -545,9 +455,6 @@
     <t>S010002</t>
   </si>
   <si>
-    <t>TAPETE - UNICA</t>
-  </si>
-  <si>
     <t>S110059</t>
   </si>
   <si>
@@ -644,9 +551,6 @@
     <t>S080016</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - TNT</t>
   </si>
   <si>
@@ -663,6 +567,72 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - 500 UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
+  </si>
+  <si>
+    <t>LANCETAS - 100UN - 100UN</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>RODO - C/ CABO 40CM</t>
+  </si>
+  <si>
+    <t>TAPETE - 1,20x0,80</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - ON CALL</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -770,16 +740,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1113,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:D51"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1141,13 +1102,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1155,13 +1116,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
@@ -1169,10 +1130,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1183,13 +1144,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D5" s="4">
         <v>53</v>
@@ -1197,27 +1158,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1225,16 +1186,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
+      </c>
+      <c r="D8" s="6">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1242,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1253,10 +1214,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1267,10 +1228,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
@@ -1284,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1298,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1312,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -1326,7 +1287,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1337,41 +1298,41 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>106</v>
+        <v>178</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1184</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -1379,13 +1340,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
@@ -1393,13 +1354,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4">
         <v>4</v>
@@ -1407,41 +1368,41 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4">
         <v>52</v>
@@ -1449,13 +1410,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D24" s="4">
         <v>904</v>
@@ -1463,27 +1424,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>115</v>
+        <v>86</v>
+      </c>
+      <c r="D25" s="6">
+        <v>903</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26" s="4">
         <v>109</v>
@@ -1491,27 +1452,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="D27" s="6">
-        <v>1</v>
+        <v>874</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28" s="4">
         <v>105</v>
@@ -1519,13 +1480,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D29" s="4">
         <v>103</v>
@@ -1533,13 +1494,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1547,13 +1508,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1561,13 +1522,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1575,13 +1536,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1589,55 +1550,55 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>121</v>
+        <v>101</v>
+      </c>
+      <c r="D35" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>106</v>
+        <v>27</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1454</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D37" s="4">
         <v>1162</v>
@@ -1645,27 +1606,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D39" s="4">
         <v>899</v>
@@ -1673,13 +1634,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D40" s="4">
         <v>896</v>
@@ -1687,13 +1648,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D41" s="4">
         <v>900</v>
@@ -1701,13 +1662,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D42" s="4">
         <v>898</v>
@@ -1715,27 +1676,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>106</v>
+        <v>134</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1456</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1743,13 +1704,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D45" s="4">
         <v>166</v>
@@ -1757,13 +1718,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D46" s="4">
         <v>167</v>
@@ -1771,41 +1732,41 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="D47" s="4">
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D49" s="4">
         <v>448</v>
@@ -1813,13 +1774,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D50" s="4">
         <v>80</v>
@@ -1827,13 +1788,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D51" s="4">
         <v>1396</v>
@@ -1841,41 +1802,41 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D54" s="4">
         <v>1164</v>
@@ -1883,13 +1844,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D55" s="4">
         <v>40</v>
@@ -1897,13 +1858,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D56" s="4">
         <v>103</v>
@@ -1911,13 +1872,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1925,13 +1886,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D58" s="4">
         <v>1166</v>
@@ -1939,27 +1900,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D60" s="4">
         <v>745</v>
@@ -1967,13 +1928,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1981,13 +1942,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1995,13 +1956,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -2009,13 +1970,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2023,13 +1984,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2037,13 +1998,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2051,13 +2012,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D67" s="4">
         <v>2</v>
@@ -2065,41 +2026,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>125</v>
+        <v>51</v>
+      </c>
+      <c r="D68" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>127</v>
+        <v>51</v>
+      </c>
+      <c r="D69" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D70" s="4">
         <v>1181</v>
@@ -2107,13 +2068,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="D71" s="4">
         <v>1172</v>
@@ -2121,13 +2082,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="D72" s="4">
         <v>1173</v>
@@ -2135,13 +2096,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="D73" s="4">
         <v>1174</v>
@@ -2149,13 +2110,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D74" s="4">
         <v>211</v>
@@ -2163,27 +2124,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>130</v>
+        <v>106</v>
+      </c>
+      <c r="D75" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D76" s="4">
         <v>1167</v>
@@ -2191,13 +2152,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D77" s="4">
         <v>1167</v>
@@ -2205,13 +2166,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D78" s="4">
         <v>820</v>
@@ -2219,13 +2180,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D79" s="4">
         <v>819</v>
@@ -2233,13 +2194,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D80" s="4">
         <v>1394</v>
@@ -2247,13 +2208,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D81" s="4">
         <v>1393</v>
@@ -2261,13 +2222,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D82" s="4">
         <v>72</v>
@@ -2275,13 +2236,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D83" s="4">
         <v>86</v>
@@ -2289,13 +2250,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D84" s="4">
         <v>55</v>
@@ -2303,13 +2264,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D85" s="4">
         <v>54</v>
@@ -2317,13 +2278,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D86" s="4">
         <v>994</v>
@@ -2331,13 +2292,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D87" s="4">
         <v>695</v>
@@ -2345,69 +2306,69 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1457</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D89" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1030</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D91" s="4">
-        <v>1</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D92" s="4">
         <v>53</v>
@@ -2415,13 +2376,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D93" s="4">
         <v>107</v>
@@ -2429,13 +2390,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D94" s="4">
         <v>986</v>
@@ -2443,13 +2404,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D95" s="4">
         <v>437</v>
@@ -2457,13 +2418,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D96" s="4">
         <v>449</v>
@@ -2471,13 +2432,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D97" s="4">
         <v>170</v>
@@ -2485,13 +2446,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D98" s="4">
         <v>163</v>
@@ -2499,13 +2460,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D99" s="4">
         <v>799</v>
@@ -2513,13 +2474,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D100" s="4">
         <v>1127</v>
@@ -2527,13 +2488,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D101" s="4">
         <v>569</v>
@@ -2541,13 +2502,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D102" s="4">
         <v>762</v>
@@ -2555,27 +2516,27 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="D103" s="4">
-        <v>1</v>
+        <v>878</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D104" s="4">
         <v>211</v>
@@ -2583,107 +2544,97 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="D105" s="4">
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>105</v>
+        <v>119</v>
+      </c>
+      <c r="D106" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D107" s="4">
-        <v>1</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D109" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D110" s="4">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D110" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D110">
-      <sortCondition ref="A1:A110"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="41">
+    <cfRule type="expression" dxfId="1" priority="41">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D50 A52:D110">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D110">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:D51">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB6EC8D-88E0-40A4-873D-4741A22E896E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53A766B-692D-4CB0-9F1D-C55A357BE683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="202">
   <si>
     <t>Complemento</t>
   </si>
@@ -633,6 +633,18 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>S050012</t>
+  </si>
+  <si>
+    <t>ESCOVA DE NYLON - VASO SANITARIO</t>
+  </si>
+  <si>
+    <t>S110017</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,63 +1590,63 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1454</v>
+        <v>201</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1449</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="4">
-        <v>1162</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="4">
-        <v>1455</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39" s="4">
-        <v>899</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>127</v>
@@ -1643,12 +1655,12 @@
         <v>31</v>
       </c>
       <c r="D40" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>127</v>
@@ -1657,12 +1669,12 @@
         <v>31</v>
       </c>
       <c r="D41" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>127</v>
@@ -1671,54 +1683,54 @@
         <v>31</v>
       </c>
       <c r="D42" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="D43" s="4">
-        <v>1456</v>
+        <v>898</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D44" s="4">
-        <v>750</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="D45" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>127</v>
@@ -1727,236 +1739,236 @@
         <v>36</v>
       </c>
       <c r="D46" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="D47" s="4">
-        <v>272</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D48" s="4">
-        <v>1157</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="D49" s="4">
-        <v>448</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D50" s="4">
-        <v>80</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" s="4">
-        <v>1396</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D52" s="4">
-        <v>1436</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>122</v>
+        <v>26</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1436</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="D54" s="4">
-        <v>1164</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="4">
-        <v>40</v>
+        <v>87</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="D56" s="4">
-        <v>103</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D57" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58" s="4">
-        <v>1166</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="4">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D60" s="4">
-        <v>745</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="D61" s="4">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="D62" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>127</v>
@@ -1965,18 +1977,18 @@
         <v>160</v>
       </c>
       <c r="D63" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -1984,13 +1996,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -1998,7 +2010,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>127</v>
@@ -2007,40 +2019,40 @@
         <v>164</v>
       </c>
       <c r="D66" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="D67" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="6">
-        <v>3</v>
+        <v>164</v>
+      </c>
+      <c r="D68" s="4">
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>127</v>
@@ -2048,55 +2060,55 @@
       <c r="C69" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="6">
-        <v>4</v>
+      <c r="D69" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70" s="4">
-        <v>1181</v>
+        <v>51</v>
+      </c>
+      <c r="D70" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1172</v>
+        <v>51</v>
+      </c>
+      <c r="D71" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="D72" s="4">
-        <v>1173</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>127</v>
@@ -2105,404 +2117,404 @@
         <v>154</v>
       </c>
       <c r="D73" s="4">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="D74" s="4">
-        <v>211</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D75" s="6">
-        <v>591</v>
+        <v>154</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1174</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D76" s="4">
-        <v>1167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1167</v>
+        <v>106</v>
+      </c>
+      <c r="D77" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D78" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="D79" s="4">
-        <v>819</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D80" s="4">
-        <v>1394</v>
+        <v>820</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D81" s="4">
-        <v>1393</v>
+        <v>819</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D82" s="4">
-        <v>72</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D83" s="4">
-        <v>86</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D84" s="4">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D85" s="4">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D86" s="4">
-        <v>994</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D87" s="4">
-        <v>695</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="D88" s="4">
-        <v>1457</v>
+        <v>994</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D89" s="4">
-        <v>1182</v>
+        <v>695</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D90" s="4">
-        <v>1030</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D91" s="4">
-        <v>1468</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D92" s="4">
-        <v>53</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D93" s="4">
-        <v>107</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D94" s="4">
-        <v>986</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="D95" s="4">
-        <v>437</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D96" s="4">
-        <v>449</v>
+        <v>986</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D97" s="4">
-        <v>170</v>
+        <v>437</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="D98" s="4">
-        <v>163</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D99" s="4">
-        <v>799</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D100" s="4">
-        <v>1127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D101" s="4">
-        <v>569</v>
+        <v>799</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>131</v>
@@ -2511,118 +2523,146 @@
         <v>76</v>
       </c>
       <c r="D102" s="4">
-        <v>762</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D103" s="4">
-        <v>878</v>
+        <v>569</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D104" s="4">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D105" s="4">
-        <v>202</v>
+        <v>878</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D106" s="6">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="D106" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D107" s="4">
-        <v>1418</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="D108" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D109" s="4">
-        <v>15</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D111" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C110" s="4" t="s">
+      <c r="B112" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D112" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2632,7 +2672,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D110">
+  <conditionalFormatting sqref="A2:D112">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53A766B-692D-4CB0-9F1D-C55A357BE683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE367FA-9490-41D4-903D-ADBF36C2AFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="201">
   <si>
     <t>Complemento</t>
   </si>
@@ -555,9 +555,6 @@
   </si>
   <si>
     <t>S080026</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
@@ -1084,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1307,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>127</v>
@@ -1324,13 +1321,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D17" s="4">
         <v>1184</v>
@@ -1380,7 +1377,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>126</v>
@@ -1394,7 +1391,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>126</v>
@@ -1464,7 +1461,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>127</v>
@@ -1562,7 +1559,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>127</v>
@@ -1590,13 +1587,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D36" s="6">
         <v>1449</v>
@@ -1604,7 +1601,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>127</v>
@@ -1632,7 +1629,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>127</v>
@@ -1702,7 +1699,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>127</v>
@@ -1758,7 +1755,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>127</v>
@@ -1772,7 +1769,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>127</v>
@@ -1814,7 +1811,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>126</v>
@@ -1828,7 +1825,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>127</v>
@@ -1842,13 +1839,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D54" s="4">
         <v>1416</v>
@@ -1856,7 +1853,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>126</v>
@@ -1926,49 +1923,49 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D60" s="4">
-        <v>1166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D61" s="4">
-        <v>70</v>
+        <v>745</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="D62" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>127</v>
@@ -1982,7 +1979,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>127</v>
@@ -1991,26 +1988,26 @@
         <v>160</v>
       </c>
       <c r="D64" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D65" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>127</v>
@@ -2019,12 +2016,12 @@
         <v>164</v>
       </c>
       <c r="D66" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>127</v>
@@ -2033,26 +2030,26 @@
         <v>164</v>
       </c>
       <c r="D67" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="D68" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>127</v>
@@ -2060,13 +2057,13 @@
       <c r="C69" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="4">
-        <v>2</v>
+      <c r="D69" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>127</v>
@@ -2075,40 +2072,40 @@
         <v>51</v>
       </c>
       <c r="D70" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D71" s="6">
-        <v>4</v>
+        <v>171</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D72" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>127</v>
@@ -2117,12 +2114,12 @@
         <v>154</v>
       </c>
       <c r="D73" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>127</v>
@@ -2131,60 +2128,60 @@
         <v>154</v>
       </c>
       <c r="D74" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="D75" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D76" s="4">
-        <v>211</v>
+        <v>106</v>
+      </c>
+      <c r="D76" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D77" s="6">
-        <v>591</v>
+        <v>54</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="D78" s="4">
         <v>1167</v>
@@ -2192,21 +2189,21 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D79" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>129</v>
@@ -2215,21 +2212,21 @@
         <v>56</v>
       </c>
       <c r="D80" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D81" s="4">
-        <v>819</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2243,54 +2240,54 @@
         <v>58</v>
       </c>
       <c r="D82" s="4">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D83" s="4">
-        <v>1393</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D84" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D85" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>127</v>
@@ -2299,26 +2296,26 @@
         <v>62</v>
       </c>
       <c r="D86" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D87" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>127</v>
@@ -2327,21 +2324,21 @@
         <v>64</v>
       </c>
       <c r="D88" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D89" s="4">
-        <v>695</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2352,10 +2349,10 @@
         <v>127</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="D90" s="4">
-        <v>1457</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,10 +2363,10 @@
         <v>127</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="D91" s="4">
-        <v>1182</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2380,113 +2377,113 @@
         <v>127</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D92" s="4">
-        <v>1030</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>193</v>
+        <v>68</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D93" s="4">
-        <v>1468</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D94" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D95" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D96" s="4">
-        <v>986</v>
+        <v>437</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D97" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="D98" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D99" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>127</v>
@@ -2495,26 +2492,26 @@
         <v>73</v>
       </c>
       <c r="D100" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D101" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>131</v>
@@ -2523,12 +2520,12 @@
         <v>76</v>
       </c>
       <c r="D102" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>131</v>
@@ -2537,132 +2534,118 @@
         <v>76</v>
       </c>
       <c r="D103" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="D104" s="4">
-        <v>762</v>
+        <v>878</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D105" s="4">
-        <v>878</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D106" s="4">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D107" s="4">
-        <v>202</v>
+        <v>119</v>
+      </c>
+      <c r="D107" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D108" s="6">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1418</v>
+        <v>121</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="D110" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="D111" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D112" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2672,7 +2655,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D112">
+  <conditionalFormatting sqref="A2:D111">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE367FA-9490-41D4-903D-ADBF36C2AFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430AFE1A-A54E-4C49-A09F-54E415DD3750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -512,9 +512,6 @@
     <t>MOP - REFIL UMIDO</t>
   </si>
   <si>
-    <t>AGULHA 12X40MM - 100UN</t>
-  </si>
-  <si>
     <t>SACO P/ LIXO C/10UN - 30L</t>
   </si>
   <si>
@@ -642,6 +639,9 @@
   </si>
   <si>
     <t>S110017</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 40X1,20MM</t>
   </si>
 </sst>
 </file>
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>126</v>
@@ -1134,7 +1134,7 @@
         <v>84</v>
       </c>
       <c r="D3" s="6">
-        <v>0.5</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,13 +1181,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>127</v>
@@ -1321,13 +1321,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D17" s="4">
         <v>1184</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>126</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>126</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>127</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>127</v>
@@ -1587,13 +1587,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="D36" s="6">
         <v>1449</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>127</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>127</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>127</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>127</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>127</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>126</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>127</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="D54" s="4">
         <v>1416</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>126</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>127</v>
@@ -1951,13 +1951,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1965,13 +1965,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -1979,13 +1979,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -1993,13 +1993,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2007,13 +2007,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D66" s="4">
         <v>32</v>
@@ -2021,13 +2021,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D67" s="4">
         <v>31</v>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D71" s="4">
         <v>1181</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>129</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>129</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>127</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>127</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>127</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>127</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>129</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>129</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>127</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>127</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>126</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>127</v>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430AFE1A-A54E-4C49-A09F-54E415DD3750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B295049-E443-49E8-9254-DD45CDE34344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -749,7 +749,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1084,7 +1093,7 @@
   <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1521,7 @@
         <v>99</v>
       </c>
       <c r="D30" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1526,7 +1535,7 @@
         <v>99</v>
       </c>
       <c r="D31" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1540,7 +1549,7 @@
         <v>99</v>
       </c>
       <c r="D32" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1554,7 +1563,7 @@
         <v>99</v>
       </c>
       <c r="D33" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,13 +2660,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="2" priority="42">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D111">
+  <conditionalFormatting sqref="A2:D29 A34:D111">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:D33">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B295049-E443-49E8-9254-DD45CDE34344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67CF773-8D36-48B5-817B-ADAF4D78E3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="203">
   <si>
     <t>Complemento</t>
   </si>
@@ -642,6 +642,12 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 40X1,20MM</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA - 200G - 200G</t>
+  </si>
+  <si>
+    <t>S010046</t>
   </si>
 </sst>
 </file>
@@ -749,16 +755,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1090,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,105 +2391,105 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="D93" s="4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D94" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D95" s="4">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D96" s="4">
-        <v>437</v>
+        <v>986</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D97" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="D98" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D99" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>127</v>
@@ -2501,26 +2498,26 @@
         <v>73</v>
       </c>
       <c r="D100" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D101" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>131</v>
@@ -2529,12 +2526,12 @@
         <v>76</v>
       </c>
       <c r="D102" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>131</v>
@@ -2543,135 +2540,144 @@
         <v>76</v>
       </c>
       <c r="D103" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D104" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="D105" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D106" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D107" s="6">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="D107" s="4">
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D108" s="4">
-        <v>1418</v>
+        <v>119</v>
+      </c>
+      <c r="D108" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>122</v>
+        <v>89</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D110" s="4">
-        <v>15</v>
+        <v>121</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D111" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="4" t="s">
+      <c r="B112" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D112" s="4">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="1" priority="42">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D29 A34:D111">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D112">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:D33">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67CF773-8D36-48B5-817B-ADAF4D78E3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA4ACCA-3371-4994-88D2-6CB8DE0A9189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1089,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,8 +2681,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="D1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA4ACCA-3371-4994-88D2-6CB8DE0A9189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218D07E4-3F51-42AE-A45F-10E041DFB80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$111</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="202">
   <si>
     <t>Complemento</t>
   </si>
@@ -555,9 +555,6 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO - 30MT PC C/4</t>
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
@@ -1087,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1128,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>126</v>
@@ -1313,7 +1310,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>127</v>
@@ -1327,13 +1324,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D17" s="4">
         <v>1184</v>
@@ -1383,7 +1380,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>126</v>
@@ -1397,7 +1394,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>126</v>
@@ -1467,7 +1464,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>127</v>
@@ -1565,7 +1562,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>127</v>
@@ -1593,13 +1590,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D36" s="6">
         <v>1449</v>
@@ -1607,7 +1604,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>127</v>
@@ -1635,7 +1632,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>127</v>
@@ -1705,7 +1702,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>127</v>
@@ -1761,7 +1758,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>127</v>
@@ -1775,7 +1772,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>127</v>
@@ -1817,7 +1814,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>126</v>
@@ -1831,7 +1828,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>127</v>
@@ -1845,13 +1842,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="D54" s="4">
         <v>1416</v>
@@ -1859,7 +1856,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>126</v>
@@ -1929,7 +1926,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>127</v>
@@ -2237,49 +2234,49 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D82" s="4">
-        <v>1393</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D83" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D84" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>127</v>
@@ -2288,26 +2285,26 @@
         <v>62</v>
       </c>
       <c r="D85" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D86" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>127</v>
@@ -2316,21 +2313,21 @@
         <v>64</v>
       </c>
       <c r="D87" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D88" s="4">
-        <v>695</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2341,10 +2338,10 @@
         <v>127</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="D89" s="4">
-        <v>1457</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2355,10 +2352,10 @@
         <v>127</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="D90" s="4">
-        <v>1182</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2369,127 +2366,127 @@
         <v>127</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D91" s="4">
-        <v>1030</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="D92" s="4">
-        <v>1468</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="D93" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D94" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D95" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D96" s="4">
-        <v>986</v>
+        <v>437</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D97" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="D98" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D99" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>127</v>
@@ -2498,26 +2495,26 @@
         <v>73</v>
       </c>
       <c r="D100" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D101" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>131</v>
@@ -2526,12 +2523,12 @@
         <v>76</v>
       </c>
       <c r="D102" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>131</v>
@@ -2540,132 +2537,118 @@
         <v>76</v>
       </c>
       <c r="D103" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="D104" s="4">
-        <v>762</v>
+        <v>878</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D105" s="4">
-        <v>878</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D106" s="4">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D107" s="4">
-        <v>202</v>
+        <v>119</v>
+      </c>
+      <c r="D107" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D108" s="6">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1418</v>
+        <v>121</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="D110" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="D111" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D112" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2675,7 +2658,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D112">
+  <conditionalFormatting sqref="A2:D111">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218D07E4-3F51-42AE-A45F-10E041DFB80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833E2BDF-20E6-4F2B-BACE-9F1DE269AF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -593,9 +593,6 @@
     <t>FITA DUPLA FACE - 19mm x 3m</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
-  </si>
-  <si>
     <t>LANCETAS - 100UN - 100UN</t>
   </si>
   <si>
@@ -645,6 +642,9 @@
   </si>
   <si>
     <t>S010046</t>
+  </si>
+  <si>
+    <t>FITILHO EMFESTA - 5MMX50M</t>
   </si>
 </sst>
 </file>
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>126</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="D36" s="6">
         <v>1449</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>127</v>
@@ -1781,7 +1781,7 @@
         <v>124</v>
       </c>
       <c r="D49" s="4">
-        <v>1157</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,13 +1842,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D54" s="4">
         <v>1416</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>126</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>127</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>127</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>127</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>127</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>127</v>
@@ -2374,13 +2374,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D92" s="4">
         <v>51</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>127</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>127</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>126</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>127</v>

--- a/pages/PI_ssoservi_cservico_ssala.xlsx
+++ b/pages/PI_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833E2BDF-20E6-4F2B-BACE-9F1DE269AF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF17F768-A478-4E71-A7C8-471E0E6440FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10CD50FE-8C6A-4327-AF79-07FE06B166EA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="204">
   <si>
     <t>Complemento</t>
   </si>
@@ -645,6 +645,12 @@
   </si>
   <si>
     <t>FITILHO EMFESTA - 5MMX50M</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -1084,11 +1090,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1562,91 +1566,91 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1436</v>
+        <v>101</v>
+      </c>
+      <c r="D34" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="D35" s="6">
-        <v>12</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1449</v>
+        <v>27</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1454</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="4">
-        <v>1454</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D39" s="4">
-        <v>1455</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>127</v>
@@ -1655,12 +1659,12 @@
         <v>31</v>
       </c>
       <c r="D40" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>127</v>
@@ -1669,12 +1673,12 @@
         <v>31</v>
       </c>
       <c r="D41" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>127</v>
@@ -1683,54 +1687,54 @@
         <v>31</v>
       </c>
       <c r="D42" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="D43" s="4">
-        <v>898</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D44" s="4">
-        <v>1456</v>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="D45" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>127</v>
@@ -1739,172 +1743,172 @@
         <v>36</v>
       </c>
       <c r="D46" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="D47" s="4">
-        <v>167</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D48" s="4">
-        <v>272</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="D49" s="4">
-        <v>1469</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D50" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D51" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="D52" s="4">
-        <v>1396</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="D53" s="4">
-        <v>1436</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1416</v>
+        <v>87</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>122</v>
+        <v>143</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1164</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D56" s="4">
-        <v>1164</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D57" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D58" s="4">
         <v>103</v>
@@ -1912,49 +1916,49 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D59" s="4">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D60" s="4">
-        <v>70</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="D61" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>127</v>
@@ -1968,7 +1972,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>127</v>
@@ -1977,26 +1981,26 @@
         <v>159</v>
       </c>
       <c r="D63" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D64" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>127</v>
@@ -2005,12 +2009,12 @@
         <v>163</v>
       </c>
       <c r="D65" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>127</v>
@@ -2019,26 +2023,26 @@
         <v>163</v>
       </c>
       <c r="D66" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="D67" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>127</v>
@@ -2046,13 +2050,13 @@
       <c r="C68" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="4">
-        <v>2</v>
+      <c r="D68" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>127</v>
@@ -2061,40 +2065,40 @@
         <v>51</v>
       </c>
       <c r="D69" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="6">
-        <v>4</v>
+        <v>170</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D71" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>127</v>
@@ -2103,12 +2107,12 @@
         <v>154</v>
       </c>
       <c r="D72" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>127</v>
@@ -2117,60 +2121,60 @@
         <v>154</v>
       </c>
       <c r="D73" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="D74" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D75" s="4">
-        <v>211</v>
+        <v>106</v>
+      </c>
+      <c r="D75" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D76" s="6">
-        <v>591</v>
+        <v>54</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="D77" s="4">
         <v>1167</v>
@@ -2178,21 +2182,21 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D78" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>129</v>
@@ -2201,68 +2205,68 @@
         <v>56</v>
       </c>
       <c r="D79" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D80" s="4">
-        <v>819</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D81" s="4">
-        <v>1394</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D82" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D83" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>127</v>
@@ -2271,26 +2275,26 @@
         <v>62</v>
       </c>
       <c r="D84" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D85" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>127</v>
@@ -2299,180 +2303,180 @@
         <v>64</v>
       </c>
       <c r="D86" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D87" s="4">
-        <v>695</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="D88" s="4">
-        <v>1457</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="D89" s="4">
-        <v>1182</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D90" s="4">
-        <v>1030</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="D91" s="4">
-        <v>1468</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="D92" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D93" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="D94" s="4">
-        <v>107</v>
+        <v>437</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="D95" s="4">
-        <v>986</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D96" s="4">
-        <v>437</v>
+        <v>986</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="D97" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D98" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>127</v>
@@ -2481,40 +2485,40 @@
         <v>73</v>
       </c>
       <c r="D99" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D100" s="4">
-        <v>799</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D101" s="4">
-        <v>1127</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>131</v>
@@ -2523,12 +2527,12 @@
         <v>76</v>
       </c>
       <c r="D102" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>131</v>
@@ -2537,105 +2541,105 @@
         <v>76</v>
       </c>
       <c r="D103" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D104" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="D105" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D106" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D107" s="6">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="D107" s="4">
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D108" s="4">
-        <v>1418</v>
+        <v>119</v>
+      </c>
+      <c r="D108" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>122</v>
+        <v>89</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D110" s="4">
-        <v>15</v>
+        <v>121</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2652,13 +2656,32 @@
         <v>1458</v>
       </c>
     </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="4">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D112" xr:uid="{C3999D34-C486-45B3-9490-16E913D7470F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D112">
+      <sortCondition ref="A1:A112"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="expression" dxfId="1" priority="42">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D111">
+  <conditionalFormatting sqref="A2:D112">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
